--- a/publication/sample data.xlsx
+++ b/publication/sample data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakob Zethofer\repos\pro2future-voest-multiple-stacked-charts\publication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF36DC0-46F1-49FD-9614-2080E8B7FD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3B435F-4F87-445D-8C1A-9821FD9EAD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="1995" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11715" yWindow="1335" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C618E96-E769-46CF-BC38-7911D2237D00}">
   <dimension ref="A1:T508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A476" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B503" sqref="B503"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="J2" s="1">
         <f t="shared" ref="J2:J65" ca="1" si="0">RANDBETWEEN(10,50)</f>
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1">
         <v>1.9989699999999999</v>
@@ -717,7 +717,7 @@
       </c>
       <c r="J3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3" s="1">
         <v>1.9995729999999998</v>
@@ -742,7 +742,7 @@
       </c>
       <c r="Q3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R3">
         <f t="shared" ca="1" si="2"/>
@@ -783,7 +783,7 @@
       </c>
       <c r="J4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="K4" s="1">
         <v>1.9992279999999996</v>
@@ -800,11 +800,11 @@
       </c>
       <c r="Q4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="str">
         <f t="shared" si="3"/>
@@ -841,7 +841,7 @@
       </c>
       <c r="J5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="K5" s="1">
         <v>1.9991490000000001</v>
@@ -907,7 +907,7 @@
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="K6" s="1">
         <v>2.0010810000000001</v>
@@ -936,7 +936,7 @@
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="str">
         <f t="shared" si="3"/>
@@ -973,7 +973,7 @@
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="K7" s="1">
         <v>1.9966650000000001</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="str">
         <f t="shared" si="3"/>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K8" s="1">
         <v>1.9986790000000001</v>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="Q8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="2"/>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="J9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K9" s="1">
         <v>1.9996650000000002</v>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="Q9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="2"/>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K10" s="1">
         <v>2.0006719999999998</v>
@@ -1196,11 +1196,11 @@
       </c>
       <c r="Q10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" t="str">
         <f t="shared" si="3"/>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="K11" s="1">
         <v>1.999498</v>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="Q11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="str">
         <f t="shared" si="3"/>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="1">
         <v>1.9997199999999999</v>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K13" s="1">
         <v>1.9990930000000002</v>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q13" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="J14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="K14" s="1">
         <v>1.9981809999999998</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" t="str">
         <f t="shared" si="3"/>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="J15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K15" s="1">
         <v>1.999104</v>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="str">
         <f t="shared" si="3"/>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="J16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K16" s="1">
         <v>1.9993759999999998</v>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="K17" s="1">
         <v>1.9981350000000004</v>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="str">
         <f t="shared" si="3"/>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="K18" s="1">
         <v>1.9992429999999999</v>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="Q18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="2"/>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="J19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K19" s="1">
         <v>1.9984669999999998</v>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="J20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="K20" s="1">
         <v>2.0003739999999999</v>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="Q20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="2"/>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="J21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="K21" s="1">
         <v>1.9991159999999999</v>
@@ -1918,15 +1918,15 @@
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Q21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="str">
         <f t="shared" si="3"/>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="J22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K22" s="1">
         <v>1.9978680000000004</v>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="Q22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R22">
         <f t="shared" ca="1" si="2"/>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="J23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K23" s="1">
         <v>1.999142</v>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="J24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K24" s="1">
         <v>1.9989679999999996</v>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="Q24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R24">
         <f t="shared" ca="1" si="2"/>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="J25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K25" s="1">
         <v>1.9991830000000004</v>
@@ -2183,11 +2183,11 @@
       </c>
       <c r="Q25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R25">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" t="str">
         <f t="shared" si="3"/>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="J26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K26" s="1">
         <v>2.0010349999999999</v>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="R26">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" t="str">
         <f t="shared" si="3"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="J27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K27" s="1">
         <v>2.0017800000000001</v>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="6"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="Q27" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="R27">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" t="str">
         <f t="shared" si="3"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="J28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K28" s="1">
         <v>1.9979769999999997</v>
@@ -2384,11 +2384,11 @@
       </c>
       <c r="Q28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R28">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" t="str">
         <f t="shared" si="3"/>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="J29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K29" s="1">
         <v>1.999517</v>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="Q29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R29">
         <f t="shared" ca="1" si="2"/>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="J30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K30" s="1">
         <v>2.0003339999999996</v>
@@ -2516,11 +2516,11 @@
       </c>
       <c r="Q30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R30">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30" t="str">
         <f t="shared" si="3"/>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="J31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K31" s="1">
         <v>1.9999459999999996</v>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="J32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="K32" s="1">
         <v>1.9986790000000001</v>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="J33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="K33" s="1">
         <v>2.0008330000000001</v>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="P33">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q33" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="R33">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33" t="str">
         <f t="shared" si="3"/>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="J34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="K34" s="1">
         <v>1.9986759999999997</v>
@@ -2780,11 +2780,11 @@
       </c>
       <c r="Q34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R34">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34" t="str">
         <f t="shared" si="3"/>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="J35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K35" s="1">
         <v>1.9986300000000004</v>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="R35">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" t="str">
         <f t="shared" si="3"/>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="J36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="K36" s="1">
         <v>2.0000369999999998</v>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="Q36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R36">
         <f t="shared" ca="1" si="2"/>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="J37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="K37" s="1">
         <v>1.9988520000000003</v>
@@ -2974,15 +2974,15 @@
       </c>
       <c r="P37">
         <f t="shared" ref="P37:P68" ca="1" si="9">IF(E37=2,RANDBETWEEN(5,8)/10,IF(E37=8,RANDBETWEEN(5,10)/10,IF(E37=12,RANDBETWEEN(10,15)/10,IF(E37=20,RANDBETWEEN(11,15)/10,""))))</f>
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R37">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" t="str">
         <f t="shared" si="3"/>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="J38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K38" s="1">
         <v>1.9966629999999999</v>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="Q38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R38">
         <f t="shared" ca="1" si="2"/>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="J39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K39" s="1">
         <v>2.000311</v>
@@ -3114,7 +3114,7 @@
       </c>
       <c r="R39">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39" t="str">
         <f t="shared" si="3"/>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="J40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K40" s="1">
         <v>2.0001800000000003</v>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="R40">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" t="str">
         <f t="shared" si="3"/>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="J41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="K41" s="1">
         <v>1.9984770000000003</v>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="R41">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" t="str">
         <f t="shared" si="3"/>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="J42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K42" s="1">
         <v>1.9997179999999997</v>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="Q42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R42">
         <f t="shared" ca="1" si="2"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="J43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K43" s="1">
         <v>1.9998240000000003</v>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="J44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="K44" s="1">
         <v>1.999403</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="R44">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44" t="str">
         <f t="shared" si="3"/>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="J45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K45" s="1">
         <v>1.9995779999999996</v>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="Q45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R45">
         <f t="shared" ca="1" si="2"/>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="J46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K46" s="1">
         <v>1.9995279999999998</v>
@@ -3572,11 +3572,11 @@
       </c>
       <c r="Q46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R46">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" t="str">
         <f t="shared" si="3"/>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="J47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K47" s="1">
         <v>2.0017750000000003</v>
@@ -3638,11 +3638,11 @@
       </c>
       <c r="Q47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R47">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" t="str">
         <f t="shared" si="3"/>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="J48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K48" s="1">
         <v>1.999898</v>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="R48">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" t="str">
         <f t="shared" si="3"/>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="J49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="K49" s="1">
         <v>1.9998459999999998</v>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="R49">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" t="str">
         <f t="shared" si="3"/>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="J50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="K50" s="1">
         <v>1.9996840000000002</v>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="R50">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" t="str">
         <f t="shared" si="3"/>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="J51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K51" s="1">
         <v>1.9976209999999996</v>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="Q51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R51">
         <f t="shared" ca="1" si="2"/>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="J52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="K52" s="1">
         <v>1.998875</v>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="J53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K53" s="1">
         <v>1.998354</v>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="R53">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53" t="str">
         <f t="shared" si="3"/>
@@ -4075,7 +4075,7 @@
       </c>
       <c r="J54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="K54" s="1">
         <v>1.9996489999999998</v>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="J55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K55" s="1">
         <v>1.9994589999999999</v>
@@ -4166,11 +4166,11 @@
       </c>
       <c r="Q55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R55">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S55" t="str">
         <f t="shared" si="3"/>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="J56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="K56" s="1">
         <v>2.0012949999999998</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="R56">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56" t="str">
         <f t="shared" si="3"/>
@@ -4273,7 +4273,7 @@
       </c>
       <c r="J57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K57" s="1">
         <v>1.9990329999999998</v>
@@ -4294,15 +4294,15 @@
       </c>
       <c r="P57">
         <f t="shared" ca="1" si="9"/>
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="Q57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R57">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S57" t="str">
         <f t="shared" si="3"/>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="J58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="K58" s="1">
         <v>2.0000830000000001</v>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="R58">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S58" t="str">
         <f t="shared" si="3"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="J59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="K59" s="1">
         <v>2.0003500000000001</v>
@@ -4430,11 +4430,11 @@
       </c>
       <c r="Q59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R59">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S59" t="str">
         <f t="shared" si="3"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="J60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K60" s="1">
         <v>1.997566</v>
@@ -4500,7 +4500,7 @@
       </c>
       <c r="R60">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S60" t="str">
         <f t="shared" si="3"/>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="J61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="K61" s="1">
         <v>1.9980770000000003</v>
@@ -4558,15 +4558,15 @@
       </c>
       <c r="P61">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R61">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S61" t="str">
         <f t="shared" si="3"/>
@@ -4603,7 +4603,7 @@
       </c>
       <c r="J62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K62" s="1">
         <v>1.9994160000000001</v>
@@ -4628,11 +4628,11 @@
       </c>
       <c r="Q62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R62">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S62" t="str">
         <f t="shared" si="3"/>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="J63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K63" s="1">
         <v>1.9999500000000001</v>
@@ -4694,11 +4694,11 @@
       </c>
       <c r="Q63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R63">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63" t="str">
         <f t="shared" si="3"/>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="J64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="K64" s="1">
         <v>1.9992229999999998</v>
@@ -4801,7 +4801,7 @@
       </c>
       <c r="J65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K65" s="1">
         <v>1.9994519999999998</v>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="J66" s="1">
         <f t="shared" ref="J66:J129" ca="1" si="10">RANDBETWEEN(10,50)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K66" s="1">
         <v>2.0000679999999997</v>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="Q66" t="str">
         <f t="shared" ref="Q66:Q129" ca="1" si="11">CHOOSE(RANDBETWEEN(1,2),"Source A","Source B")</f>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R66">
         <f t="shared" ref="R66:R129" ca="1" si="12">RANDBETWEEN(0,1)</f>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="J67" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K67" s="1">
         <v>2.0008499999999998</v>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="R67">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S67" t="str">
         <f t="shared" si="13"/>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="J68" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K68" s="1">
         <v>2.001239</v>
@@ -5024,11 +5024,11 @@
       </c>
       <c r="Q68" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R68">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S68" t="str">
         <f t="shared" si="13"/>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="J69" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K69" s="1">
         <v>2.0011210000000004</v>
@@ -5086,15 +5086,15 @@
       </c>
       <c r="P69">
         <f t="shared" ref="P69:P100" ca="1" si="16">IF(E69=2,RANDBETWEEN(5,8)/10,IF(E69=8,RANDBETWEEN(5,10)/10,IF(E69=12,RANDBETWEEN(10,15)/10,IF(E69=20,RANDBETWEEN(11,15)/10,""))))</f>
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q69" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R69">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S69" t="str">
         <f t="shared" si="13"/>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="J70" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="K70" s="1">
         <v>2.000648</v>
@@ -5156,7 +5156,7 @@
       </c>
       <c r="Q70" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R70">
         <f t="shared" ca="1" si="12"/>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="J71" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="K71" s="1">
         <v>1.9990379999999996</v>
@@ -5222,11 +5222,11 @@
       </c>
       <c r="Q71" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R71">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S71" t="str">
         <f t="shared" si="13"/>
@@ -5263,7 +5263,7 @@
       </c>
       <c r="J72" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="K72" s="1">
         <v>2.0007260000000002</v>
@@ -5292,7 +5292,7 @@
       </c>
       <c r="R72">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72" t="str">
         <f t="shared" si="13"/>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="J73" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K73" s="1">
         <v>2.000489</v>
@@ -5354,11 +5354,11 @@
       </c>
       <c r="Q73" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R73">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S73" t="str">
         <f t="shared" si="13"/>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="J74" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="K74" s="1">
         <v>2.0000309999999999</v>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="J75" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K75" s="1">
         <v>2.0004140000000001</v>
@@ -5527,7 +5527,7 @@
       </c>
       <c r="J76" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K76" s="1">
         <v>1.9992010000000002</v>
@@ -5548,7 +5548,7 @@
       </c>
       <c r="P76">
         <f t="shared" ca="1" si="16"/>
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="Q76" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="J77" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="K77" s="1">
         <v>2.0007900000000003</v>
@@ -5622,7 +5622,7 @@
       </c>
       <c r="R77">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S77" t="str">
         <f t="shared" si="13"/>
@@ -5659,7 +5659,7 @@
       </c>
       <c r="J78" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K78" s="1">
         <v>1.9991729999999999</v>
@@ -5688,7 +5688,7 @@
       </c>
       <c r="R78">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S78" t="str">
         <f t="shared" si="13"/>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="J79" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="K79" s="1">
         <v>1.9978059999999997</v>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="Q79" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R79">
         <f t="shared" ca="1" si="12"/>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="J80" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="K80" s="1">
         <v>1.9983190000000004</v>
@@ -5816,11 +5816,11 @@
       </c>
       <c r="Q80" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R80">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S80" t="str">
         <f t="shared" si="13"/>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="J81" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K81" s="1">
         <v>1.999657</v>
@@ -5882,11 +5882,11 @@
       </c>
       <c r="Q81" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R81">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S81" t="str">
         <f t="shared" si="13"/>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="J82" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="K82" s="1">
         <v>1.9997590000000001</v>
@@ -5944,7 +5944,7 @@
       </c>
       <c r="P82">
         <f t="shared" ca="1" si="16"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Q82" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -5952,7 +5952,7 @@
       </c>
       <c r="R82">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S82" t="str">
         <f t="shared" si="13"/>
@@ -5989,7 +5989,7 @@
       </c>
       <c r="J83" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K83" s="1">
         <v>1.9988929999999998</v>
@@ -6018,7 +6018,7 @@
       </c>
       <c r="R83">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S83" t="str">
         <f t="shared" si="13"/>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="J84" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K84" s="1">
         <v>1.9993350000000003</v>
@@ -6080,7 +6080,7 @@
       </c>
       <c r="Q84" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R84">
         <f t="shared" ca="1" si="12"/>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="J85" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K85" s="1">
         <v>1.9992489999999998</v>
@@ -6187,7 +6187,7 @@
       </c>
       <c r="J86" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="K86" s="1">
         <v>1.9994069999999997</v>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="Q86" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R86">
         <f t="shared" ca="1" si="12"/>
@@ -6253,7 +6253,7 @@
       </c>
       <c r="J87" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="K87" s="1">
         <v>1.9994389999999997</v>
@@ -6278,11 +6278,11 @@
       </c>
       <c r="Q87" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R87">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S87" t="str">
         <f t="shared" si="13"/>
@@ -6319,7 +6319,7 @@
       </c>
       <c r="J88" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K88" s="1">
         <v>1.9978579999999999</v>
@@ -6344,11 +6344,11 @@
       </c>
       <c r="Q88" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R88">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S88" t="str">
         <f t="shared" si="13"/>
@@ -6385,7 +6385,7 @@
       </c>
       <c r="J89" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="K89" s="1">
         <v>1.9992599999999996</v>
@@ -6414,7 +6414,7 @@
       </c>
       <c r="R89">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S89" t="str">
         <f t="shared" si="13"/>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="J90" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K90" s="1">
         <v>2.0004429999999997</v>
@@ -6517,7 +6517,7 @@
       </c>
       <c r="J91" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="K91" s="1">
         <v>1.9992869999999998</v>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="J92" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="K92" s="1">
         <v>1.998367</v>
@@ -6608,7 +6608,7 @@
       </c>
       <c r="Q92" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R92">
         <f t="shared" ca="1" si="12"/>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="J93" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="K93" s="1">
         <v>1.9995940000000001</v>
@@ -6678,7 +6678,7 @@
       </c>
       <c r="R93">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S93" t="str">
         <f t="shared" si="13"/>
@@ -6715,7 +6715,7 @@
       </c>
       <c r="J94" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="K94" s="1">
         <v>1.9992890000000001</v>
@@ -6736,15 +6736,15 @@
       </c>
       <c r="P94">
         <f t="shared" ca="1" si="16"/>
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q94" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R94">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S94" t="str">
         <f t="shared" si="13"/>
@@ -6781,7 +6781,7 @@
       </c>
       <c r="J95" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="K95" s="1">
         <v>1.9992200000000002</v>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="Q95" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R95">
         <f t="shared" ca="1" si="12"/>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="J96" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K96" s="1">
         <v>1.9999539999999998</v>
@@ -6872,11 +6872,11 @@
       </c>
       <c r="Q96" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R96">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S96" t="str">
         <f t="shared" si="13"/>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="J97" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K97" s="1">
         <v>2.0019989999999996</v>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="J98" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K98" s="1">
         <v>1.9990949999999996</v>
@@ -7045,7 +7045,7 @@
       </c>
       <c r="J99" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K99" s="1">
         <v>2.000229</v>
@@ -7070,11 +7070,11 @@
       </c>
       <c r="Q99" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R99">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S99" t="str">
         <f t="shared" si="13"/>
@@ -7111,7 +7111,7 @@
       </c>
       <c r="J100" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K100" s="1">
         <v>1.9983579999999996</v>
@@ -7132,7 +7132,7 @@
       </c>
       <c r="P100">
         <f t="shared" ca="1" si="16"/>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Q100" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="J101" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K101" s="1">
         <v>1.9991620000000001</v>
@@ -7206,7 +7206,7 @@
       </c>
       <c r="R101">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S101" t="str">
         <f t="shared" si="13"/>
@@ -7243,7 +7243,7 @@
       </c>
       <c r="J102" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K102" s="1">
         <v>2.0000429999999998</v>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="J103" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="K103" s="1">
         <v>2.0000070000000001</v>
@@ -7334,7 +7334,7 @@
       </c>
       <c r="Q103" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R103">
         <f t="shared" ca="1" si="12"/>
@@ -7375,7 +7375,7 @@
       </c>
       <c r="J104" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K104" s="1">
         <v>2.0000369999999998</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="R104">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S104" t="str">
         <f t="shared" si="13"/>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="J105" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K105" s="1">
         <v>1.998475</v>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="Q105" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R105">
         <f t="shared" ca="1" si="12"/>
@@ -7507,7 +7507,7 @@
       </c>
       <c r="J106" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="K106" s="1">
         <v>1.9989410000000003</v>
@@ -7528,11 +7528,11 @@
       </c>
       <c r="P106">
         <f t="shared" ca="1" si="19"/>
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="Q106" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R106">
         <f t="shared" ca="1" si="12"/>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="J107" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K107" s="1">
         <v>1.9986100000000002</v>
@@ -7639,7 +7639,7 @@
       </c>
       <c r="J108" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="K108" s="1">
         <v>2.0007919999999997</v>
@@ -7664,11 +7664,11 @@
       </c>
       <c r="Q108" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R108">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S108" t="str">
         <f t="shared" si="13"/>
@@ -7705,7 +7705,7 @@
       </c>
       <c r="J109" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="K109" s="1">
         <v>2.0025320000000004</v>
@@ -7730,11 +7730,11 @@
       </c>
       <c r="Q109" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R109">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S109" t="str">
         <f t="shared" si="13"/>
@@ -7771,7 +7771,7 @@
       </c>
       <c r="J110" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="K110" s="1">
         <v>1.9999950000000002</v>
@@ -7792,7 +7792,7 @@
       </c>
       <c r="P110">
         <f t="shared" ca="1" si="19"/>
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Q110" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7800,7 +7800,7 @@
       </c>
       <c r="R110">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S110" t="str">
         <f t="shared" si="13"/>
@@ -7837,7 +7837,7 @@
       </c>
       <c r="J111" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K111" s="1">
         <v>1.9975649999999998</v>
@@ -7866,7 +7866,7 @@
       </c>
       <c r="R111">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S111" t="str">
         <f t="shared" si="13"/>
@@ -7903,7 +7903,7 @@
       </c>
       <c r="J112" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="K112" s="1">
         <v>2.0004499999999998</v>
@@ -7928,11 +7928,11 @@
       </c>
       <c r="Q112" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R112">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S112" t="str">
         <f t="shared" si="13"/>
@@ -7969,7 +7969,7 @@
       </c>
       <c r="J113" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="K113" s="1">
         <v>1.998653</v>
@@ -7994,7 +7994,7 @@
       </c>
       <c r="Q113" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R113">
         <f t="shared" ca="1" si="12"/>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="J114" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="K114" s="1">
         <v>2.0002870000000001</v>
@@ -8060,7 +8060,7 @@
       </c>
       <c r="Q114" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R114">
         <f t="shared" ca="1" si="12"/>
@@ -8101,7 +8101,7 @@
       </c>
       <c r="J115" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K115" s="1">
         <v>1.998729</v>
@@ -8126,7 +8126,7 @@
       </c>
       <c r="Q115" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R115">
         <f t="shared" ca="1" si="12"/>
@@ -8167,7 +8167,7 @@
       </c>
       <c r="J116" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K116" s="1">
         <v>1.9981600000000004</v>
@@ -8192,11 +8192,11 @@
       </c>
       <c r="Q116" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R116">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S116" t="str">
         <f t="shared" si="13"/>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="J117" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="K117" s="1">
         <v>1.9992150000000004</v>
@@ -8262,7 +8262,7 @@
       </c>
       <c r="R117">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S117" t="str">
         <f t="shared" si="13"/>
@@ -8320,11 +8320,11 @@
       </c>
       <c r="P118">
         <f t="shared" ca="1" si="19"/>
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q118" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R118">
         <f t="shared" ca="1" si="12"/>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="J119" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K119" s="1">
         <v>1.9996489999999998</v>
@@ -8390,7 +8390,7 @@
       </c>
       <c r="Q119" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R119">
         <f t="shared" ca="1" si="12"/>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="J120" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="K120" s="1">
         <v>1.99979</v>
@@ -8497,7 +8497,7 @@
       </c>
       <c r="J121" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="K121" s="1">
         <v>1.997077</v>
@@ -8526,7 +8526,7 @@
       </c>
       <c r="R121">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S121" t="str">
         <f t="shared" si="13"/>
@@ -8563,7 +8563,7 @@
       </c>
       <c r="J122" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="K122" s="1">
         <v>1.9999779999999996</v>
@@ -8592,7 +8592,7 @@
       </c>
       <c r="R122">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S122" t="str">
         <f t="shared" si="13"/>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="J123" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K123" s="1">
         <v>2.0013180000000004</v>
@@ -8651,7 +8651,7 @@
       </c>
       <c r="Q123" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R123">
         <f t="shared" ca="1" si="12"/>
@@ -8695,7 +8695,7 @@
       </c>
       <c r="J124" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="K124" s="1">
         <v>1.9992939999999999</v>
@@ -8720,7 +8720,7 @@
       </c>
       <c r="Q124" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R124">
         <f t="shared" ca="1" si="12"/>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="J125" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K125" s="1">
         <v>1.999841</v>
@@ -8786,11 +8786,11 @@
       </c>
       <c r="Q125" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R125">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S125" t="str">
         <f t="shared" si="13"/>
@@ -8827,7 +8827,7 @@
       </c>
       <c r="J126" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K126" s="1">
         <v>2.0011239999999999</v>
@@ -8852,7 +8852,7 @@
       </c>
       <c r="Q126" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R126">
         <f t="shared" ca="1" si="12"/>
@@ -8893,7 +8893,7 @@
       </c>
       <c r="J127" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K127" s="1">
         <v>2.0009759999999996</v>
@@ -8918,11 +8918,11 @@
       </c>
       <c r="Q127" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R127">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S127" t="str">
         <f t="shared" si="13"/>
@@ -8959,7 +8959,7 @@
       </c>
       <c r="J128" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K128" s="1">
         <v>1.9971319999999997</v>
@@ -8984,11 +8984,11 @@
       </c>
       <c r="Q128" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R128">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S128" t="str">
         <f t="shared" si="13"/>
@@ -9025,7 +9025,7 @@
       </c>
       <c r="J129" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K129" s="1">
         <v>1.9995529999999997</v>
@@ -9091,7 +9091,7 @@
       </c>
       <c r="J130" s="1">
         <f t="shared" ref="J130:J193" ca="1" si="20">RANDBETWEEN(10,50)</f>
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="K130" s="1">
         <v>1.9994909999999999</v>
@@ -9157,7 +9157,7 @@
       </c>
       <c r="J131" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K131" s="1">
         <v>1.9990439999999996</v>
@@ -9182,7 +9182,7 @@
       </c>
       <c r="Q131" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R131">
         <f t="shared" ca="1" si="22"/>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="J132" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="K132" s="1">
         <v>2</v>
@@ -9248,7 +9248,7 @@
       </c>
       <c r="Q132" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R132">
         <f t="shared" ca="1" si="22"/>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="J133" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="K133" s="1">
         <v>2.0006919999999999</v>
@@ -9314,7 +9314,7 @@
       </c>
       <c r="Q133" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R133">
         <f t="shared" ca="1" si="22"/>
@@ -9355,7 +9355,7 @@
       </c>
       <c r="J134" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="K134" s="1">
         <v>2.0015309999999999</v>
@@ -9421,7 +9421,7 @@
       </c>
       <c r="J135" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K135" s="1">
         <v>2.0015330000000002</v>
@@ -9442,15 +9442,15 @@
       </c>
       <c r="P135">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="Q135" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R135">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S135" t="str">
         <f t="shared" si="23"/>
@@ -9487,7 +9487,7 @@
       </c>
       <c r="J136" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="K136" s="1">
         <v>2.000597</v>
@@ -9516,7 +9516,7 @@
       </c>
       <c r="R136">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S136" t="str">
         <f t="shared" si="23"/>
@@ -9553,7 +9553,7 @@
       </c>
       <c r="J137" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="K137" s="1">
         <v>2.0017230000000001</v>
@@ -9578,11 +9578,11 @@
       </c>
       <c r="Q137" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R137">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S137" t="str">
         <f t="shared" si="23"/>
@@ -9619,7 +9619,7 @@
       </c>
       <c r="J138" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="K138" s="1">
         <v>1.9993800000000004</v>
@@ -9644,7 +9644,7 @@
       </c>
       <c r="Q138" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R138">
         <f t="shared" ca="1" si="22"/>
@@ -9685,7 +9685,7 @@
       </c>
       <c r="J139" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K139" s="1">
         <v>1.9990490000000003</v>
@@ -9710,7 +9710,7 @@
       </c>
       <c r="Q139" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R139">
         <f t="shared" ca="1" si="22"/>
@@ -9751,7 +9751,7 @@
       </c>
       <c r="J140" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="K140" s="1">
         <v>1.998335</v>
@@ -9776,11 +9776,11 @@
       </c>
       <c r="Q140" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R140">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S140" t="str">
         <f t="shared" si="23"/>
@@ -9817,7 +9817,7 @@
       </c>
       <c r="J141" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="K141" s="1">
         <v>1.997357</v>
@@ -9842,11 +9842,11 @@
       </c>
       <c r="Q141" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R141">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S141" t="str">
         <f t="shared" si="23"/>
@@ -9883,7 +9883,7 @@
       </c>
       <c r="J142" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K142" s="1">
         <v>1.9996530000000003</v>
@@ -9912,7 +9912,7 @@
       </c>
       <c r="R142">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S142" t="str">
         <f t="shared" si="23"/>
@@ -9949,7 +9949,7 @@
       </c>
       <c r="J143" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="K143" s="1">
         <v>1.9985900000000001</v>
@@ -9978,7 +9978,7 @@
       </c>
       <c r="R143">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S143" t="str">
         <f t="shared" si="23"/>
@@ -10015,7 +10015,7 @@
       </c>
       <c r="J144" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K144" s="1">
         <v>1.9998659999999999</v>
@@ -10044,7 +10044,7 @@
       </c>
       <c r="R144">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S144" t="str">
         <f t="shared" si="23"/>
@@ -10081,7 +10081,7 @@
       </c>
       <c r="J145" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K145" s="1">
         <v>2.000705</v>
@@ -10106,7 +10106,7 @@
       </c>
       <c r="Q145" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R145">
         <f t="shared" ca="1" si="22"/>
@@ -10147,7 +10147,7 @@
       </c>
       <c r="J146" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K146" s="1">
         <v>1.9967290000000002</v>
@@ -10176,7 +10176,7 @@
       </c>
       <c r="R146">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S146" t="str">
         <f t="shared" si="23"/>
@@ -10210,7 +10210,7 @@
       </c>
       <c r="J147" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K147" s="1">
         <v>1.9979800000000001</v>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="J148" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="K148" s="1">
         <v>1.9986889999999997</v>
@@ -10293,7 +10293,7 @@
       <c r="N148"/>
       <c r="Q148" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R148">
         <f t="shared" ca="1" si="22"/>
@@ -10334,7 +10334,7 @@
       </c>
       <c r="J149" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K149" s="1">
         <v>1.9995149999999997</v>
@@ -10352,7 +10352,7 @@
       </c>
       <c r="R149">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S149" t="str">
         <f t="shared" si="23"/>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="J150" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="K150" s="1">
         <v>1.9971420000000002</v>
@@ -10407,7 +10407,7 @@
       </c>
       <c r="R150">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S150" t="str">
         <f t="shared" si="23"/>
@@ -10444,7 +10444,7 @@
       </c>
       <c r="J151" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="K151" s="1">
         <v>1.9998180000000003</v>
@@ -10462,7 +10462,7 @@
       </c>
       <c r="R151">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S151" t="str">
         <f t="shared" si="23"/>
@@ -10499,7 +10499,7 @@
       </c>
       <c r="J152" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="K152" s="1">
         <v>2.0000099999999996</v>
@@ -10513,7 +10513,7 @@
       <c r="N152"/>
       <c r="Q152" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R152">
         <f t="shared" ca="1" si="22"/>
@@ -10554,7 +10554,7 @@
       </c>
       <c r="J153" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="K153" s="1">
         <v>1.9988840000000003</v>
@@ -10568,11 +10568,11 @@
       <c r="N153"/>
       <c r="Q153" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R153">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S153" t="str">
         <f t="shared" si="23"/>
@@ -10609,7 +10609,7 @@
       </c>
       <c r="J154" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K154" s="1">
         <v>1.9995329999999996</v>
@@ -10627,7 +10627,7 @@
       </c>
       <c r="R154">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S154" t="str">
         <f t="shared" si="23"/>
@@ -10664,7 +10664,7 @@
       </c>
       <c r="J155" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="K155" s="1">
         <v>1.9997569999999998</v>
@@ -10682,7 +10682,7 @@
       </c>
       <c r="R155">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S155" t="str">
         <f t="shared" si="23"/>
@@ -10719,7 +10719,7 @@
       </c>
       <c r="J156" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K156" s="1">
         <v>2.0000790000000004</v>
@@ -10774,7 +10774,7 @@
       </c>
       <c r="J157" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K157" s="1">
         <v>2.0003549999999999</v>
@@ -10788,7 +10788,7 @@
       <c r="N157"/>
       <c r="Q157" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R157">
         <f t="shared" ca="1" si="22"/>
@@ -10829,7 +10829,7 @@
       </c>
       <c r="J158" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="K158" s="1">
         <v>1.999358</v>
@@ -10847,7 +10847,7 @@
       </c>
       <c r="R158">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S158" t="str">
         <f t="shared" si="23"/>
@@ -10884,7 +10884,7 @@
       </c>
       <c r="J159" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="K159" s="1">
         <v>1.9986649999999999</v>
@@ -10898,11 +10898,11 @@
       <c r="N159"/>
       <c r="Q159" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R159">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S159" t="str">
         <f t="shared" si="23"/>
@@ -10939,7 +10939,7 @@
       </c>
       <c r="J160" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="K160" s="1">
         <v>1.9980339999999996</v>
@@ -10953,7 +10953,7 @@
       <c r="N160"/>
       <c r="Q160" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R160">
         <f t="shared" ca="1" si="22"/>
@@ -10994,7 +10994,7 @@
       </c>
       <c r="J161" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K161" s="1">
         <v>1.9996939999999999</v>
@@ -11008,7 +11008,7 @@
       <c r="N161"/>
       <c r="Q161" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R161">
         <f t="shared" ca="1" si="22"/>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="J162" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K162" s="1">
         <v>2.0000049999999998</v>
@@ -11063,11 +11063,11 @@
       <c r="N162"/>
       <c r="Q162" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R162">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S162" t="str">
         <f t="shared" si="23"/>
@@ -11104,7 +11104,7 @@
       </c>
       <c r="J163" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K163" s="1">
         <v>1.9996299999999998</v>
@@ -11118,11 +11118,11 @@
       <c r="N163"/>
       <c r="Q163" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R163">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S163" t="str">
         <f t="shared" si="23"/>
@@ -11214,7 +11214,7 @@
       </c>
       <c r="J165" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K165" s="1">
         <v>2.0011789999999996</v>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="J166" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="K166" s="1">
         <v>2.0001220000000002</v>
@@ -11283,7 +11283,7 @@
       <c r="N166"/>
       <c r="Q166" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R166">
         <f t="shared" ca="1" si="22"/>
@@ -11324,7 +11324,7 @@
       </c>
       <c r="J167" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K167" s="1">
         <v>1.9992929999999998</v>
@@ -11379,7 +11379,7 @@
       </c>
       <c r="J168" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="K168" s="1">
         <v>1.9996600000000004</v>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="R168">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S168" t="str">
         <f t="shared" si="23"/>
@@ -11434,7 +11434,7 @@
       </c>
       <c r="J169" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="K169" s="1">
         <v>1.998335</v>
@@ -11448,11 +11448,11 @@
       <c r="N169"/>
       <c r="Q169" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R169">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S169" t="str">
         <f t="shared" si="23"/>
@@ -11489,7 +11489,7 @@
       </c>
       <c r="J170" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K170" s="1">
         <v>1.9986459999999999</v>
@@ -11503,11 +11503,11 @@
       <c r="N170"/>
       <c r="Q170" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R170">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S170" t="str">
         <f t="shared" si="23"/>
@@ -11541,7 +11541,7 @@
       </c>
       <c r="J171" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="K171" s="1">
         <v>1.9983430000000002</v>
@@ -11566,7 +11566,7 @@
       </c>
       <c r="Q171" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R171">
         <f t="shared" ca="1" si="22"/>
@@ -11610,7 +11610,7 @@
       </c>
       <c r="J172" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K172" s="1">
         <v>1.9984869999999999</v>
@@ -11635,7 +11635,7 @@
       </c>
       <c r="Q172" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R172">
         <f t="shared" ca="1" si="22"/>
@@ -11676,7 +11676,7 @@
       </c>
       <c r="J173" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K173" s="1">
         <v>1.9994569999999996</v>
@@ -11697,7 +11697,7 @@
       </c>
       <c r="P173">
         <f t="shared" ca="1" si="29"/>
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="Q173" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -11742,7 +11742,7 @@
       </c>
       <c r="J174" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="K174" s="1">
         <v>1.9993480000000003</v>
@@ -11771,7 +11771,7 @@
       </c>
       <c r="R174">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S174" t="str">
         <f t="shared" si="23"/>
@@ -11808,7 +11808,7 @@
       </c>
       <c r="J175" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="K175" s="1">
         <v>2.0002649999999997</v>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="Q175" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R175">
         <f t="shared" ca="1" si="22"/>
@@ -11940,7 +11940,7 @@
       </c>
       <c r="J177" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K177" s="1">
         <v>1.9998389999999997</v>
@@ -12006,7 +12006,7 @@
       </c>
       <c r="J178" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K178" s="1">
         <v>1.9984849999999996</v>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="Q178" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R178">
         <f t="shared" ca="1" si="22"/>
@@ -12072,7 +12072,7 @@
       </c>
       <c r="J179" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K179" s="1">
         <v>2.0000939999999998</v>
@@ -12093,15 +12093,15 @@
       </c>
       <c r="P179">
         <f t="shared" ca="1" si="29"/>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="Q179" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R179">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S179" t="str">
         <f t="shared" si="23"/>
@@ -12138,7 +12138,7 @@
       </c>
       <c r="J180" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="K180" s="1">
         <v>1.9982689999999996</v>
@@ -12167,7 +12167,7 @@
       </c>
       <c r="R180">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S180" t="str">
         <f t="shared" si="23"/>
@@ -12204,7 +12204,7 @@
       </c>
       <c r="J181" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="K181" s="1">
         <v>1.9994329999999998</v>
@@ -12270,7 +12270,7 @@
       </c>
       <c r="J182" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="K182" s="1">
         <v>1.9985390000000001</v>
@@ -12295,11 +12295,11 @@
       </c>
       <c r="Q182" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R182">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S182" t="str">
         <f t="shared" si="23"/>
@@ -12336,7 +12336,7 @@
       </c>
       <c r="J183" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K183" s="1">
         <v>1.9988979999999996</v>
@@ -12357,7 +12357,7 @@
       </c>
       <c r="P183">
         <f t="shared" ca="1" si="29"/>
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Q183" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -12402,7 +12402,7 @@
       </c>
       <c r="J184" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K184" s="1">
         <v>1.9986889999999997</v>
@@ -12431,7 +12431,7 @@
       </c>
       <c r="R184">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S184" t="str">
         <f t="shared" si="23"/>
@@ -12468,7 +12468,7 @@
       </c>
       <c r="J185" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="K185" s="1">
         <v>1.9996809999999998</v>
@@ -12493,11 +12493,11 @@
       </c>
       <c r="Q185" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R185">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S185" t="str">
         <f t="shared" si="23"/>
@@ -12534,7 +12534,7 @@
       </c>
       <c r="J186" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K186" s="1">
         <v>2.0003310000000001</v>
@@ -12559,7 +12559,7 @@
       </c>
       <c r="Q186" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R186">
         <f t="shared" ca="1" si="22"/>
@@ -12600,7 +12600,7 @@
       </c>
       <c r="J187" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="K187" s="1">
         <v>1.9996590000000003</v>
@@ -12625,11 +12625,11 @@
       </c>
       <c r="Q187" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R187">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S187" t="str">
         <f t="shared" si="23"/>
@@ -12666,7 +12666,7 @@
       </c>
       <c r="J188" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="K188" s="1">
         <v>1.9989869999999996</v>
@@ -12695,7 +12695,7 @@
       </c>
       <c r="R188">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S188" t="str">
         <f t="shared" si="23"/>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="J189" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="K189" s="1">
         <v>1.9992599999999996</v>
@@ -12757,7 +12757,7 @@
       </c>
       <c r="Q189" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R189">
         <f t="shared" ca="1" si="22"/>
@@ -12798,7 +12798,7 @@
       </c>
       <c r="J190" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="K190" s="1">
         <v>1.9991890000000003</v>
@@ -12823,7 +12823,7 @@
       </c>
       <c r="Q190" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R190">
         <f t="shared" ca="1" si="22"/>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="P191">
         <f t="shared" ca="1" si="29"/>
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="Q191" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -12893,7 +12893,7 @@
       </c>
       <c r="R191">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S191" t="str">
         <f t="shared" si="23"/>
@@ -12930,7 +12930,7 @@
       </c>
       <c r="J192" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K192" s="1">
         <v>1.9996020000000003</v>
@@ -12996,7 +12996,7 @@
       </c>
       <c r="J193" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K193" s="1">
         <v>1.9983589999999998</v>
@@ -13021,7 +13021,7 @@
       </c>
       <c r="Q193" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R193">
         <f t="shared" ca="1" si="22"/>
@@ -13062,7 +13062,7 @@
       </c>
       <c r="J194" s="1">
         <f t="shared" ref="J194:J257" ca="1" si="30">RANDBETWEEN(10,50)</f>
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K194" s="1">
         <v>1.9984010000000003</v>
@@ -13091,7 +13091,7 @@
       </c>
       <c r="R194">
         <f t="shared" ref="R194:R257" ca="1" si="32">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S194" t="str">
         <f t="shared" ref="S194:S257" si="33">CHOOSE(MOD(D194,3)+1,"D","E","F")</f>
@@ -13125,7 +13125,7 @@
       </c>
       <c r="J195" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K195" s="1">
         <v>1.999072</v>
@@ -13150,7 +13150,7 @@
       </c>
       <c r="Q195" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R195">
         <f t="shared" ca="1" si="32"/>
@@ -13194,7 +13194,7 @@
       </c>
       <c r="J196" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K196" s="1">
         <v>1.9994050000000003</v>
@@ -13260,7 +13260,7 @@
       </c>
       <c r="J197" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K197" s="1">
         <v>1.9992739999999998</v>
@@ -13281,11 +13281,11 @@
       </c>
       <c r="P197">
         <f t="shared" ca="1" si="29"/>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="Q197" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R197">
         <f t="shared" ca="1" si="32"/>
@@ -13326,7 +13326,7 @@
       </c>
       <c r="J198" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K198" s="1">
         <v>1.9995019999999997</v>
@@ -13392,7 +13392,7 @@
       </c>
       <c r="J199" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K199" s="1">
         <v>1.9992910000000004</v>
@@ -13417,7 +13417,7 @@
       </c>
       <c r="Q199" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R199">
         <f t="shared" ca="1" si="32"/>
@@ -13458,7 +13458,7 @@
       </c>
       <c r="J200" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="K200" s="1">
         <v>1.9990699999999997</v>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="J201" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K201" s="1">
         <v>1.9987440000000003</v>
@@ -13549,7 +13549,7 @@
       </c>
       <c r="Q201" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R201">
         <f t="shared" ca="1" si="32"/>
@@ -13590,7 +13590,7 @@
       </c>
       <c r="J202" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="K202" s="1">
         <v>1.9995630000000002</v>
@@ -13615,7 +13615,7 @@
       </c>
       <c r="Q202" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R202">
         <f t="shared" ca="1" si="32"/>
@@ -13656,7 +13656,7 @@
       </c>
       <c r="J203" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K203" s="1">
         <v>1.9997350000000003</v>
@@ -13677,7 +13677,7 @@
       </c>
       <c r="P203">
         <f t="shared" ref="P203:P221" ca="1" si="36">IF(E203=2,RANDBETWEEN(5,8)/10,IF(E203=8,RANDBETWEEN(5,10)/10,IF(E203=12,RANDBETWEEN(10,15)/10,IF(E203=20,RANDBETWEEN(11,15)/10,""))))</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="Q203" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -13685,7 +13685,7 @@
       </c>
       <c r="R203">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S203" t="str">
         <f t="shared" si="33"/>
@@ -13722,7 +13722,7 @@
       </c>
       <c r="J204" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="K204" s="1">
         <v>1.9998290000000001</v>
@@ -13747,7 +13747,7 @@
       </c>
       <c r="Q204" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R204">
         <f t="shared" ca="1" si="32"/>
@@ -13788,7 +13788,7 @@
       </c>
       <c r="J205" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K205" s="1">
         <v>1.9998649999999998</v>
@@ -13813,11 +13813,11 @@
       </c>
       <c r="Q205" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R205">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S205" t="str">
         <f t="shared" si="33"/>
@@ -13854,7 +13854,7 @@
       </c>
       <c r="J206" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K206" s="1">
         <v>1.9988840000000003</v>
@@ -13920,7 +13920,7 @@
       </c>
       <c r="J207" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="K207" s="1">
         <v>1.9983329999999997</v>
@@ -13941,7 +13941,7 @@
       </c>
       <c r="P207">
         <f t="shared" ca="1" si="36"/>
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q207" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -13986,7 +13986,7 @@
       </c>
       <c r="J208" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="K208" s="1">
         <v>1.9986940000000004</v>
@@ -14015,7 +14015,7 @@
       </c>
       <c r="R208">
         <f t="shared" ca="1" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S208" t="str">
         <f t="shared" si="33"/>
@@ -14052,7 +14052,7 @@
       </c>
       <c r="J209" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K209" s="1">
         <v>1.9994860000000001</v>
@@ -14077,7 +14077,7 @@
       </c>
       <c r="Q209" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R209">
         <f t="shared" ca="1" si="32"/>
@@ -14118,7 +14118,7 @@
       </c>
       <c r="J210" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="K210" s="1">
         <v>2.0004369999999998</v>
@@ -14184,7 +14184,7 @@
       </c>
       <c r="J211" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K211" s="1">
         <v>1.9981720000000003</v>
@@ -14250,7 +14250,7 @@
       </c>
       <c r="J212" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K212" s="1">
         <v>2.0002310000000003</v>
@@ -14316,7 +14316,7 @@
       </c>
       <c r="J213" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K213" s="1">
         <v>2.0010440000000003</v>
@@ -14341,11 +14341,11 @@
       </c>
       <c r="Q213" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R213">
         <f t="shared" ca="1" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S213" t="str">
         <f t="shared" si="33"/>
@@ -14382,7 +14382,7 @@
       </c>
       <c r="J214" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K214" s="1">
         <v>2.0005329999999999</v>
@@ -14407,7 +14407,7 @@
       </c>
       <c r="Q214" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R214">
         <f t="shared" ca="1" si="32"/>
@@ -14448,7 +14448,7 @@
       </c>
       <c r="J215" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="K215" s="1">
         <v>1.999485</v>
@@ -14469,7 +14469,7 @@
       </c>
       <c r="P215">
         <f t="shared" ca="1" si="36"/>
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q215" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -14514,7 +14514,7 @@
       </c>
       <c r="J216" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K216" s="1">
         <v>1.9991479999999999</v>
@@ -14580,7 +14580,7 @@
       </c>
       <c r="J217" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K217" s="1">
         <v>2.0004629999999999</v>
@@ -14646,7 +14646,7 @@
       </c>
       <c r="J218" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K218" s="1">
         <v>1.9994839999999998</v>
@@ -14671,11 +14671,11 @@
       </c>
       <c r="Q218" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R218">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S218" t="str">
         <f t="shared" si="33"/>
@@ -14712,7 +14712,7 @@
       </c>
       <c r="J219" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K219" s="1">
         <v>1.9998610000000001</v>
@@ -14775,7 +14775,7 @@
       </c>
       <c r="J220" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K220" s="1">
         <v>1.9999440000000002</v>
@@ -14800,7 +14800,7 @@
       </c>
       <c r="Q220" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R220">
         <f t="shared" ca="1" si="32"/>
@@ -14844,7 +14844,7 @@
       </c>
       <c r="J221" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="K221" s="1">
         <v>1.9991680000000001</v>
@@ -14869,7 +14869,7 @@
       </c>
       <c r="Q221" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R221">
         <f t="shared" ca="1" si="32"/>
@@ -14910,7 +14910,7 @@
       </c>
       <c r="J222" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K222" s="1">
         <v>1.999282</v>
@@ -14924,7 +14924,7 @@
       <c r="N222"/>
       <c r="Q222" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R222">
         <f t="shared" ca="1" si="32"/>
@@ -14965,7 +14965,7 @@
       </c>
       <c r="J223" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K223" s="1">
         <v>1.9986879999999996</v>
@@ -15020,7 +15020,7 @@
       </c>
       <c r="J224" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K224" s="1">
         <v>2.0002469999999999</v>
@@ -15034,11 +15034,11 @@
       <c r="N224"/>
       <c r="Q224" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R224">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S224" t="str">
         <f t="shared" si="33"/>
@@ -15075,7 +15075,7 @@
       </c>
       <c r="J225" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K225" s="1">
         <v>1.9991830000000004</v>
@@ -15093,7 +15093,7 @@
       </c>
       <c r="R225">
         <f t="shared" ca="1" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S225" t="str">
         <f t="shared" si="33"/>
@@ -15130,7 +15130,7 @@
       </c>
       <c r="J226" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K226" s="1">
         <v>2.0007630000000001</v>
@@ -15144,7 +15144,7 @@
       <c r="N226"/>
       <c r="Q226" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R226">
         <f t="shared" ca="1" si="32"/>
@@ -15185,7 +15185,7 @@
       </c>
       <c r="J227" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="K227" s="1">
         <v>2.0000289999999996</v>
@@ -15199,11 +15199,11 @@
       <c r="N227"/>
       <c r="Q227" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R227">
         <f t="shared" ca="1" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S227" t="str">
         <f t="shared" si="33"/>
@@ -15240,7 +15240,7 @@
       </c>
       <c r="J228" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K228" s="1">
         <v>1.9993109999999996</v>
@@ -15254,11 +15254,11 @@
       <c r="N228"/>
       <c r="Q228" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R228">
         <f t="shared" ca="1" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S228" t="str">
         <f t="shared" si="33"/>
@@ -15295,7 +15295,7 @@
       </c>
       <c r="J229" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="K229" s="1">
         <v>1.9989869999999996</v>
@@ -15309,7 +15309,7 @@
       <c r="N229"/>
       <c r="Q229" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R229">
         <f t="shared" ca="1" si="32"/>
@@ -15350,7 +15350,7 @@
       </c>
       <c r="J230" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K230" s="1">
         <v>1.9997199999999999</v>
@@ -15364,7 +15364,7 @@
       <c r="N230"/>
       <c r="Q230" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R230">
         <f t="shared" ca="1" si="32"/>
@@ -15405,7 +15405,7 @@
       </c>
       <c r="J231" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="K231" s="1">
         <v>1.9995419999999999</v>
@@ -15460,7 +15460,7 @@
       </c>
       <c r="J232" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K232" s="1">
         <v>2.0004400000000002</v>
@@ -15474,11 +15474,11 @@
       <c r="N232"/>
       <c r="Q232" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R232">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S232" t="str">
         <f t="shared" si="33"/>
@@ -15515,7 +15515,7 @@
       </c>
       <c r="J233" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="K233" s="1">
         <v>1.9995510000000003</v>
@@ -15529,7 +15529,7 @@
       <c r="N233"/>
       <c r="Q233" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R233">
         <f t="shared" ca="1" si="32"/>
@@ -15570,7 +15570,7 @@
       </c>
       <c r="J234" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="K234" s="1">
         <v>1.9996989999999997</v>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="J235" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K235" s="1">
         <v>1.9999650000000004</v>
@@ -15639,7 +15639,7 @@
       <c r="N235"/>
       <c r="Q235" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R235">
         <f t="shared" ca="1" si="32"/>
@@ -15680,7 +15680,7 @@
       </c>
       <c r="J236" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K236" s="1">
         <v>1.9997259999999999</v>
@@ -15698,7 +15698,7 @@
       </c>
       <c r="R236">
         <f t="shared" ca="1" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S236" t="str">
         <f t="shared" si="33"/>
@@ -15735,7 +15735,7 @@
       </c>
       <c r="J237" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="K237" s="1">
         <v>1.9984820000000001</v>
@@ -15753,7 +15753,7 @@
       </c>
       <c r="R237">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S237" t="str">
         <f t="shared" si="33"/>
@@ -15790,7 +15790,7 @@
       </c>
       <c r="J238" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K238" s="1">
         <v>1.9997020000000001</v>
@@ -15804,11 +15804,11 @@
       <c r="N238"/>
       <c r="Q238" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R238">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S238" t="str">
         <f t="shared" si="33"/>
@@ -15845,7 +15845,7 @@
       </c>
       <c r="J239" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K239" s="1">
         <v>1.9983529999999998</v>
@@ -15859,7 +15859,7 @@
       <c r="N239"/>
       <c r="Q239" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R239">
         <f t="shared" ca="1" si="32"/>
@@ -15900,7 +15900,7 @@
       </c>
       <c r="J240" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K240" s="1">
         <v>2.0001990000000003</v>
@@ -15918,7 +15918,7 @@
       </c>
       <c r="R240">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S240" t="str">
         <f t="shared" si="33"/>
@@ -15955,7 +15955,7 @@
       </c>
       <c r="J241" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="K241" s="1">
         <v>1.9999890000000002</v>
@@ -16010,7 +16010,7 @@
       </c>
       <c r="J242" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K242" s="1">
         <v>2.0006649999999997</v>
@@ -16024,7 +16024,7 @@
       <c r="N242"/>
       <c r="Q242" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R242">
         <f t="shared" ca="1" si="32"/>
@@ -16065,7 +16065,7 @@
       </c>
       <c r="J243" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="K243" s="1">
         <v>1.9995079999999996</v>
@@ -16079,11 +16079,11 @@
       <c r="N243"/>
       <c r="Q243" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R243">
         <f t="shared" ca="1" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S243" t="str">
         <f t="shared" si="33"/>
@@ -16117,7 +16117,7 @@
       </c>
       <c r="J244" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K244" s="1">
         <v>2.0016920000000002</v>
@@ -16131,7 +16131,7 @@
       <c r="N244"/>
       <c r="Q244" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R244">
         <f t="shared" ca="1" si="32"/>
@@ -16175,7 +16175,7 @@
       </c>
       <c r="J245" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K245" s="1">
         <v>1.9996859999999996</v>
@@ -16193,7 +16193,7 @@
       </c>
       <c r="R245">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S245" t="str">
         <f t="shared" si="33"/>
@@ -16230,7 +16230,7 @@
       </c>
       <c r="J246" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="K246" s="1">
         <v>1.999574</v>
@@ -16285,7 +16285,7 @@
       </c>
       <c r="J247" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="K247" s="1">
         <v>2.0002129999999996</v>
@@ -16310,11 +16310,11 @@
       </c>
       <c r="Q247" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R247">
         <f t="shared" ca="1" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S247" t="str">
         <f t="shared" si="33"/>
@@ -16351,7 +16351,7 @@
       </c>
       <c r="J248" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K248" s="1">
         <v>1.9993629999999998</v>
@@ -16376,11 +16376,11 @@
       </c>
       <c r="Q248" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R248">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S248" t="str">
         <f t="shared" si="33"/>
@@ -16417,7 +16417,7 @@
       </c>
       <c r="J249" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="K249" s="1">
         <v>1.9991789999999998</v>
@@ -16446,7 +16446,7 @@
       </c>
       <c r="R249">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S249" t="str">
         <f t="shared" si="33"/>
@@ -16483,7 +16483,7 @@
       </c>
       <c r="J250" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K250" s="1">
         <v>1.9992799999999997</v>
@@ -16508,11 +16508,11 @@
       </c>
       <c r="Q250" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R250">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S250" t="str">
         <f t="shared" si="33"/>
@@ -16549,7 +16549,7 @@
       </c>
       <c r="J251" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K251" s="1">
         <v>1.9998990000000001</v>
@@ -16574,7 +16574,7 @@
       </c>
       <c r="Q251" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R251">
         <f t="shared" ca="1" si="32"/>
@@ -16615,7 +16615,7 @@
       </c>
       <c r="J252" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="K252" s="1">
         <v>2.000121</v>
@@ -16636,15 +16636,15 @@
       </c>
       <c r="P252">
         <f t="shared" ca="1" si="39"/>
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="Q252" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R252">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S252" t="str">
         <f t="shared" si="33"/>
@@ -16681,7 +16681,7 @@
       </c>
       <c r="J253" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K253" s="1">
         <v>1.9998149999999999</v>
@@ -16706,7 +16706,7 @@
       </c>
       <c r="Q253" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R253">
         <f t="shared" ca="1" si="32"/>
@@ -16747,7 +16747,7 @@
       </c>
       <c r="J254" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K254" s="1">
         <v>1.9995700000000003</v>
@@ -16776,7 +16776,7 @@
       </c>
       <c r="R254">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S254" t="str">
         <f t="shared" si="33"/>
@@ -16813,7 +16813,7 @@
       </c>
       <c r="J255" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="K255" s="1">
         <v>2.0004419999999996</v>
@@ -16838,7 +16838,7 @@
       </c>
       <c r="Q255" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R255">
         <f t="shared" ca="1" si="32"/>
@@ -16879,7 +16879,7 @@
       </c>
       <c r="J256" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="K256" s="1">
         <v>1.9988669999999997</v>
@@ -16900,11 +16900,11 @@
       </c>
       <c r="P256">
         <f t="shared" ca="1" si="39"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="Q256" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R256">
         <f t="shared" ca="1" si="32"/>
@@ -16945,7 +16945,7 @@
       </c>
       <c r="J257" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K257" s="1">
         <v>1.999098</v>
@@ -17011,7 +17011,7 @@
       </c>
       <c r="J258" s="1">
         <f t="shared" ref="J258:J321" ca="1" si="40">RANDBETWEEN(10,50)</f>
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="K258" s="1">
         <v>2.0002839999999997</v>
@@ -17036,7 +17036,7 @@
       </c>
       <c r="Q258" t="str">
         <f t="shared" ref="Q258:Q321" ca="1" si="41">CHOOSE(RANDBETWEEN(1,2),"Source A","Source B")</f>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R258">
         <f t="shared" ref="R258:R321" ca="1" si="42">RANDBETWEEN(0,1)</f>
@@ -17077,7 +17077,7 @@
       </c>
       <c r="J259" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="K259" s="1">
         <v>2.0003500000000001</v>
@@ -17143,7 +17143,7 @@
       </c>
       <c r="J260" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="K260" s="1">
         <v>1.9991269999999997</v>
@@ -17209,7 +17209,7 @@
       </c>
       <c r="J261" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K261" s="1">
         <v>1.999841</v>
@@ -17234,7 +17234,7 @@
       </c>
       <c r="Q261" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R261">
         <f t="shared" ca="1" si="42"/>
@@ -17275,7 +17275,7 @@
       </c>
       <c r="J262" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K262" s="1">
         <v>2.0001519999999999</v>
@@ -17300,7 +17300,7 @@
       </c>
       <c r="Q262" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R262">
         <f t="shared" ca="1" si="42"/>
@@ -17341,7 +17341,7 @@
       </c>
       <c r="J263" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="K263" s="1">
         <v>2.000934</v>
@@ -17366,7 +17366,7 @@
       </c>
       <c r="Q263" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R263">
         <f t="shared" ca="1" si="42"/>
@@ -17407,7 +17407,7 @@
       </c>
       <c r="J264" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K264" s="1">
         <v>1.9979769999999997</v>
@@ -17428,7 +17428,7 @@
       </c>
       <c r="P264">
         <f t="shared" ca="1" si="39"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="Q264" t="str">
         <f t="shared" ca="1" si="41"/>
@@ -17436,7 +17436,7 @@
       </c>
       <c r="R264">
         <f t="shared" ca="1" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S264" t="str">
         <f t="shared" si="43"/>
@@ -17473,7 +17473,7 @@
       </c>
       <c r="J265" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="K265" s="1">
         <v>2.0004869999999997</v>
@@ -17498,11 +17498,11 @@
       </c>
       <c r="Q265" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R265">
         <f t="shared" ca="1" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S265" t="str">
         <f t="shared" si="43"/>
@@ -17539,7 +17539,7 @@
       </c>
       <c r="J266" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="K266" s="1">
         <v>2.000788</v>
@@ -17568,7 +17568,7 @@
       </c>
       <c r="R266">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S266" t="str">
         <f t="shared" si="43"/>
@@ -17605,7 +17605,7 @@
       </c>
       <c r="J267" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K267" s="1">
         <v>1.9997049999999996</v>
@@ -17630,11 +17630,11 @@
       </c>
       <c r="Q267" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R267">
         <f t="shared" ca="1" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S267" t="str">
         <f t="shared" si="43"/>
@@ -17671,7 +17671,7 @@
       </c>
       <c r="J268" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K268" s="1">
         <v>1.9996419999999997</v>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="R268">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S268" t="str">
         <f t="shared" si="43"/>
@@ -17734,7 +17734,7 @@
       </c>
       <c r="J269" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K269" s="1">
         <v>2.0006009999999996</v>
@@ -17759,7 +17759,7 @@
       </c>
       <c r="Q269" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R269">
         <f t="shared" ca="1" si="42"/>
@@ -17803,7 +17803,7 @@
       </c>
       <c r="J270" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="K270" s="1">
         <v>2.0006339999999998</v>
@@ -17828,11 +17828,11 @@
       </c>
       <c r="Q270" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R270">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S270" t="str">
         <f t="shared" si="43"/>
@@ -17869,7 +17869,7 @@
       </c>
       <c r="J271" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K271" s="1">
         <v>1.998208</v>
@@ -17890,11 +17890,11 @@
       </c>
       <c r="P271">
         <f t="shared" ca="1" si="39"/>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Q271" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R271">
         <f t="shared" ca="1" si="42"/>
@@ -17935,7 +17935,7 @@
       </c>
       <c r="J272" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K272" s="1">
         <v>1.9988409999999996</v>
@@ -17960,11 +17960,11 @@
       </c>
       <c r="Q272" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R272">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S272" t="str">
         <f t="shared" si="43"/>
@@ -18001,7 +18001,7 @@
       </c>
       <c r="J273" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="K273" s="1">
         <v>1.9991490000000001</v>
@@ -18026,7 +18026,7 @@
       </c>
       <c r="Q273" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R273">
         <f t="shared" ca="1" si="42"/>
@@ -18067,7 +18067,7 @@
       </c>
       <c r="J274" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K274" s="1">
         <v>1.9990069999999998</v>
@@ -18092,7 +18092,7 @@
       </c>
       <c r="Q274" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R274">
         <f t="shared" ca="1" si="42"/>
@@ -18133,7 +18133,7 @@
       </c>
       <c r="J275" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K275" s="1">
         <v>1.9998969999999998</v>
@@ -18162,7 +18162,7 @@
       </c>
       <c r="R275">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S275" t="str">
         <f t="shared" si="43"/>
@@ -18199,7 +18199,7 @@
       </c>
       <c r="J276" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K276" s="1">
         <v>1.9994779999999999</v>
@@ -18224,7 +18224,7 @@
       </c>
       <c r="Q276" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R276">
         <f t="shared" ca="1" si="42"/>
@@ -18265,7 +18265,7 @@
       </c>
       <c r="J277" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K277" s="1">
         <v>2.0016860000000003</v>
@@ -18286,7 +18286,7 @@
       </c>
       <c r="P277">
         <f t="shared" ca="1" si="39"/>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Q277" t="str">
         <f t="shared" ca="1" si="41"/>
@@ -18294,7 +18294,7 @@
       </c>
       <c r="R277">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S277" t="str">
         <f t="shared" si="43"/>
@@ -18331,7 +18331,7 @@
       </c>
       <c r="J278" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K278" s="1">
         <v>2.0011429999999999</v>
@@ -18356,7 +18356,7 @@
       </c>
       <c r="Q278" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R278">
         <f t="shared" ca="1" si="42"/>
@@ -18397,7 +18397,7 @@
       </c>
       <c r="J279" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="K279" s="1">
         <v>1.999701</v>
@@ -18422,7 +18422,7 @@
       </c>
       <c r="Q279" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R279">
         <f t="shared" ca="1" si="42"/>
@@ -18463,7 +18463,7 @@
       </c>
       <c r="J280" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="K280" s="1">
         <v>2.0003060000000001</v>
@@ -18529,7 +18529,7 @@
       </c>
       <c r="J281" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="K281" s="1">
         <v>1.9985739999999996</v>
@@ -18550,7 +18550,7 @@
       </c>
       <c r="P281">
         <f t="shared" ca="1" si="39"/>
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="Q281" t="str">
         <f t="shared" ca="1" si="41"/>
@@ -18558,7 +18558,7 @@
       </c>
       <c r="R281">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S281" t="str">
         <f t="shared" si="43"/>
@@ -18595,7 +18595,7 @@
       </c>
       <c r="J282" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K282" s="1">
         <v>1.9988080000000004</v>
@@ -18624,7 +18624,7 @@
       </c>
       <c r="R282">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S282" t="str">
         <f t="shared" si="43"/>
@@ -18661,7 +18661,7 @@
       </c>
       <c r="J283" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K283" s="1">
         <v>1.9992020000000004</v>
@@ -18690,7 +18690,7 @@
       </c>
       <c r="R283">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S283" t="str">
         <f t="shared" si="43"/>
@@ -18727,7 +18727,7 @@
       </c>
       <c r="J284" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="K284" s="1">
         <v>2.0001790000000002</v>
@@ -18793,7 +18793,7 @@
       </c>
       <c r="J285" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K285" s="1">
         <v>1.9997999999999996</v>
@@ -18818,7 +18818,7 @@
       </c>
       <c r="Q285" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R285">
         <f t="shared" ca="1" si="42"/>
@@ -18859,7 +18859,7 @@
       </c>
       <c r="J286" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="K286" s="1">
         <v>2.0004759999999999</v>
@@ -18925,7 +18925,7 @@
       </c>
       <c r="J287" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="K287" s="1">
         <v>1.9986879999999996</v>
@@ -18950,11 +18950,11 @@
       </c>
       <c r="Q287" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R287">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S287" t="str">
         <f t="shared" si="43"/>
@@ -18991,7 +18991,7 @@
       </c>
       <c r="J288" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K288" s="1">
         <v>1.9988929999999998</v>
@@ -19020,7 +19020,7 @@
       </c>
       <c r="R288">
         <f t="shared" ca="1" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S288" t="str">
         <f t="shared" si="43"/>
@@ -19057,7 +19057,7 @@
       </c>
       <c r="J289" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K289" s="1">
         <v>1.9990459999999999</v>
@@ -19078,7 +19078,7 @@
       </c>
       <c r="P289">
         <f t="shared" ca="1" si="39"/>
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Q289" t="str">
         <f t="shared" ca="1" si="41"/>
@@ -19086,7 +19086,7 @@
       </c>
       <c r="R289">
         <f t="shared" ca="1" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S289" t="str">
         <f t="shared" si="43"/>
@@ -19123,7 +19123,7 @@
       </c>
       <c r="J290" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="K290" s="1">
         <v>2.0000179999999999</v>
@@ -19189,7 +19189,7 @@
       </c>
       <c r="J291" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K291" s="1">
         <v>1.9998760000000004</v>
@@ -19214,11 +19214,11 @@
       </c>
       <c r="Q291" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R291">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S291" t="str">
         <f t="shared" si="43"/>
@@ -19255,7 +19255,7 @@
       </c>
       <c r="J292" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K292" s="1">
         <v>1.9994180000000004</v>
@@ -19280,11 +19280,11 @@
       </c>
       <c r="Q292" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R292">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S292" t="str">
         <f t="shared" si="43"/>
@@ -19321,7 +19321,7 @@
       </c>
       <c r="J293" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K293" s="1">
         <v>1.9996470000000004</v>
@@ -19350,7 +19350,7 @@
       </c>
       <c r="R293">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S293" t="str">
         <f t="shared" si="43"/>
@@ -19390,7 +19390,7 @@
       </c>
       <c r="J294" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K294" s="1">
         <v>1.8310930000000001</v>
@@ -19415,11 +19415,11 @@
       </c>
       <c r="Q294" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R294">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S294" t="str">
         <f t="shared" si="43"/>
@@ -19456,7 +19456,7 @@
       </c>
       <c r="J295" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K295" s="1">
         <v>1.8327720000000003</v>
@@ -19477,7 +19477,7 @@
       </c>
       <c r="P295">
         <f t="shared" ca="1" si="39"/>
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="Q295" t="str">
         <f t="shared" ca="1" si="41"/>
@@ -19522,7 +19522,7 @@
       </c>
       <c r="J296" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K296" s="1">
         <v>1.8324889999999998</v>
@@ -19551,7 +19551,7 @@
       </c>
       <c r="R296">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S296" t="str">
         <f t="shared" si="43"/>
@@ -19588,7 +19588,7 @@
       </c>
       <c r="J297" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K297" s="1">
         <v>1.8280469999999998</v>
@@ -19613,7 +19613,7 @@
       </c>
       <c r="Q297" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R297">
         <f t="shared" ca="1" si="42"/>
@@ -19654,7 +19654,7 @@
       </c>
       <c r="J298" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="K298" s="1">
         <v>1.8292679999999999</v>
@@ -19683,7 +19683,7 @@
       </c>
       <c r="R298">
         <f t="shared" ca="1" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S298" t="str">
         <f t="shared" si="43"/>
@@ -19720,7 +19720,7 @@
       </c>
       <c r="J299" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K299" s="1">
         <v>1.829275</v>
@@ -19749,7 +19749,7 @@
       </c>
       <c r="R299">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S299" t="str">
         <f t="shared" si="43"/>
@@ -19811,11 +19811,11 @@
       </c>
       <c r="Q300" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R300">
         <f t="shared" ca="1" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S300" t="str">
         <f t="shared" si="43"/>
@@ -19852,7 +19852,7 @@
       </c>
       <c r="J301" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="K301" s="1">
         <v>1.8310149999999998</v>
@@ -19873,7 +19873,7 @@
       </c>
       <c r="P301">
         <f t="shared" ca="1" si="39"/>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="Q301" t="str">
         <f t="shared" ca="1" si="41"/>
@@ -19918,7 +19918,7 @@
       </c>
       <c r="J302" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="K302" s="1">
         <v>1.8323799999999997</v>
@@ -19947,7 +19947,7 @@
       </c>
       <c r="R302">
         <f t="shared" ca="1" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S302" t="str">
         <f t="shared" si="43"/>
@@ -20050,7 +20050,7 @@
       </c>
       <c r="J304" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="K304" s="1">
         <v>1.8284349999999998</v>
@@ -20075,11 +20075,11 @@
       </c>
       <c r="Q304" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R304">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S304" t="str">
         <f t="shared" si="43"/>
@@ -20116,7 +20116,7 @@
       </c>
       <c r="J305" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K305" s="1">
         <v>1.8310719999999998</v>
@@ -20137,7 +20137,7 @@
       </c>
       <c r="P305">
         <f t="shared" ca="1" si="39"/>
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="Q305" t="str">
         <f t="shared" ca="1" si="41"/>
@@ -20145,7 +20145,7 @@
       </c>
       <c r="R305">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S305" t="str">
         <f t="shared" si="43"/>
@@ -20182,7 +20182,7 @@
       </c>
       <c r="J306" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K306" s="1">
         <v>1.8295969999999997</v>
@@ -20207,11 +20207,11 @@
       </c>
       <c r="Q306" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R306">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S306" t="str">
         <f t="shared" si="43"/>
@@ -20273,7 +20273,7 @@
       </c>
       <c r="Q307" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R307">
         <f t="shared" ca="1" si="42"/>
@@ -20339,11 +20339,11 @@
       </c>
       <c r="Q308" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R308">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S308" t="str">
         <f t="shared" si="43"/>
@@ -20380,7 +20380,7 @@
       </c>
       <c r="J309" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="K309" s="1">
         <v>1.8302040000000002</v>
@@ -20405,11 +20405,11 @@
       </c>
       <c r="Q309" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R309">
         <f t="shared" ca="1" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S309" t="str">
         <f t="shared" si="43"/>
@@ -20446,7 +20446,7 @@
       </c>
       <c r="J310" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="K310" s="1">
         <v>1.8324319999999998</v>
@@ -20471,11 +20471,11 @@
       </c>
       <c r="Q310" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R310">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S310" t="str">
         <f t="shared" si="43"/>
@@ -20512,7 +20512,7 @@
       </c>
       <c r="J311" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="K311" s="1">
         <v>1.8333649999999997</v>
@@ -20578,7 +20578,7 @@
       </c>
       <c r="J312" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K312" s="1">
         <v>1.8312650000000001</v>
@@ -20603,7 +20603,7 @@
       </c>
       <c r="Q312" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R312">
         <f t="shared" ca="1" si="42"/>
@@ -20644,7 +20644,7 @@
       </c>
       <c r="J313" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="K313" s="1">
         <v>1.8319780000000003</v>
@@ -20673,7 +20673,7 @@
       </c>
       <c r="R313">
         <f t="shared" ca="1" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S313" t="str">
         <f t="shared" si="43"/>
@@ -20710,7 +20710,7 @@
       </c>
       <c r="J314" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K314" s="1">
         <v>1.828951</v>
@@ -20739,7 +20739,7 @@
       </c>
       <c r="R314">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S314" t="str">
         <f t="shared" si="43"/>
@@ -20776,7 +20776,7 @@
       </c>
       <c r="J315" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="K315" s="1">
         <v>1.7893720000000002</v>
@@ -20801,11 +20801,11 @@
       </c>
       <c r="Q315" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R315">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S315" t="str">
         <f t="shared" si="43"/>
@@ -20842,7 +20842,7 @@
       </c>
       <c r="J316" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="K316" s="1">
         <v>1.7789440000000001</v>
@@ -20908,7 +20908,7 @@
       </c>
       <c r="J317" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="K317" s="1">
         <v>1.7783670000000003</v>
@@ -20933,11 +20933,11 @@
       </c>
       <c r="Q317" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R317">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S317" t="str">
         <f t="shared" si="43"/>
@@ -20977,7 +20977,7 @@
       </c>
       <c r="J318" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="K318" s="1">
         <v>1.7791959999999998</v>
@@ -21043,7 +21043,7 @@
       </c>
       <c r="J319" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K319" s="1">
         <v>1.7797890000000001</v>
@@ -21068,7 +21068,7 @@
       </c>
       <c r="Q319" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R319">
         <f t="shared" ca="1" si="42"/>
@@ -21109,7 +21109,7 @@
       </c>
       <c r="J320" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K320" s="1">
         <v>1.7801539999999996</v>
@@ -21138,7 +21138,7 @@
       </c>
       <c r="R320">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S320" t="str">
         <f t="shared" si="43"/>
@@ -21175,7 +21175,7 @@
       </c>
       <c r="J321" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K321" s="1">
         <v>1.7823289999999998</v>
@@ -21200,7 +21200,7 @@
       </c>
       <c r="Q321" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R321">
         <f t="shared" ca="1" si="42"/>
@@ -21241,7 +21241,7 @@
       </c>
       <c r="J322" s="1">
         <f t="shared" ref="J322:J385" ca="1" si="47">RANDBETWEEN(10,50)</f>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="K322" s="1">
         <v>1.7790419999999996</v>
@@ -21266,7 +21266,7 @@
       </c>
       <c r="Q322" t="str">
         <f t="shared" ref="Q322:Q385" ca="1" si="48">CHOOSE(RANDBETWEEN(1,2),"Source A","Source B")</f>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R322">
         <f t="shared" ref="R322:R385" ca="1" si="49">RANDBETWEEN(0,1)</f>
@@ -21307,7 +21307,7 @@
       </c>
       <c r="J323" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="K323" s="1">
         <v>1.7809569999999999</v>
@@ -21332,11 +21332,11 @@
       </c>
       <c r="Q323" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R323">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S323" t="str">
         <f t="shared" si="50"/>
@@ -21373,7 +21373,7 @@
       </c>
       <c r="J324" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="K324" s="1">
         <v>1.7781209999999996</v>
@@ -21439,7 +21439,7 @@
       </c>
       <c r="J325" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K325" s="1">
         <v>1.7806990000000003</v>
@@ -21460,15 +21460,15 @@
       </c>
       <c r="P325">
         <f t="shared" ca="1" si="46"/>
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="Q325" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R325">
         <f t="shared" ca="1" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S325" t="str">
         <f t="shared" si="50"/>
@@ -21505,7 +21505,7 @@
       </c>
       <c r="J326" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="K326" s="1">
         <v>1.7823719999999996</v>
@@ -21571,7 +21571,7 @@
       </c>
       <c r="J327" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K327" s="1">
         <v>1.7804159999999998</v>
@@ -21596,7 +21596,7 @@
       </c>
       <c r="Q327" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R327">
         <f t="shared" ca="1" si="49"/>
@@ -21637,7 +21637,7 @@
       </c>
       <c r="J328" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="K328" s="1">
         <v>1.7817350000000003</v>
@@ -21662,11 +21662,11 @@
       </c>
       <c r="Q328" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R328">
         <f t="shared" ca="1" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S328" t="str">
         <f t="shared" si="50"/>
@@ -21703,7 +21703,7 @@
       </c>
       <c r="J329" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K329" s="1">
         <v>1.7812919999999997</v>
@@ -21724,7 +21724,7 @@
       </c>
       <c r="P329">
         <f t="shared" ca="1" si="46"/>
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="Q329" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -21769,7 +21769,7 @@
       </c>
       <c r="J330" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="K330" s="1">
         <v>1.7793359999999998</v>
@@ -21835,7 +21835,7 @@
       </c>
       <c r="J331" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="K331" s="1">
         <v>1.7815589999999997</v>
@@ -21864,7 +21864,7 @@
       </c>
       <c r="R331">
         <f t="shared" ca="1" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S331" t="str">
         <f t="shared" si="50"/>
@@ -21901,7 +21901,7 @@
       </c>
       <c r="J332" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="K332" s="1">
         <v>1.7815919999999998</v>
@@ -21926,7 +21926,7 @@
       </c>
       <c r="Q332" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R332">
         <f t="shared" ca="1" si="49"/>
@@ -21967,7 +21967,7 @@
       </c>
       <c r="J333" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="K333" s="1">
         <v>1.7797850000000004</v>
@@ -21992,7 +21992,7 @@
       </c>
       <c r="Q333" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R333">
         <f t="shared" ca="1" si="49"/>
@@ -22033,7 +22033,7 @@
       </c>
       <c r="J334" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="K334" s="1">
         <v>1.7804039999999999</v>
@@ -22099,7 +22099,7 @@
       </c>
       <c r="J335" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="K335" s="1">
         <v>1.782464</v>
@@ -22124,7 +22124,7 @@
       </c>
       <c r="Q335" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R335">
         <f t="shared" ca="1" si="49"/>
@@ -22165,7 +22165,7 @@
       </c>
       <c r="J336" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K336" s="1">
         <v>1.7790489999999997</v>
@@ -22190,7 +22190,7 @@
       </c>
       <c r="Q336" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R336">
         <f t="shared" ca="1" si="49"/>
@@ -22231,7 +22231,7 @@
       </c>
       <c r="J337" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K337" s="1">
         <v>1.7796649999999996</v>
@@ -22252,7 +22252,7 @@
       </c>
       <c r="P337">
         <f t="shared" ca="1" si="46"/>
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q337" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -22260,7 +22260,7 @@
       </c>
       <c r="R337">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S337" t="str">
         <f t="shared" si="50"/>
@@ -22297,7 +22297,7 @@
       </c>
       <c r="J338" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K338" s="1">
         <v>1.7423890000000002</v>
@@ -22363,7 +22363,7 @@
       </c>
       <c r="J339" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K339" s="1">
         <v>1.7217450000000003</v>
@@ -22392,7 +22392,7 @@
       </c>
       <c r="R339">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S339" t="str">
         <f t="shared" si="50"/>
@@ -22429,7 +22429,7 @@
       </c>
       <c r="J340" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K340" s="1">
         <v>1.714359</v>
@@ -22458,7 +22458,7 @@
       </c>
       <c r="R340">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S340" t="str">
         <f t="shared" si="50"/>
@@ -22495,7 +22495,7 @@
       </c>
       <c r="J341" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="K341" s="1">
         <v>1.7212639999999997</v>
@@ -22524,7 +22524,7 @@
       </c>
       <c r="R341">
         <f t="shared" ca="1" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S341" t="str">
         <f t="shared" si="50"/>
@@ -22564,7 +22564,7 @@
       </c>
       <c r="J342" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K342" s="1">
         <v>1.718731</v>
@@ -22630,7 +22630,7 @@
       </c>
       <c r="J343" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K343" s="1">
         <v>1.7174389999999997</v>
@@ -22659,7 +22659,7 @@
       </c>
       <c r="R343">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S343" t="str">
         <f t="shared" si="50"/>
@@ -22696,7 +22696,7 @@
       </c>
       <c r="J344" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K344" s="1">
         <v>1.7173119999999997</v>
@@ -22725,7 +22725,7 @@
       </c>
       <c r="R344">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S344" t="str">
         <f t="shared" si="50"/>
@@ -22762,7 +22762,7 @@
       </c>
       <c r="J345" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="K345" s="1">
         <v>1.7147990000000002</v>
@@ -22791,7 +22791,7 @@
       </c>
       <c r="R345">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S345" t="str">
         <f t="shared" si="50"/>
@@ -22828,7 +22828,7 @@
       </c>
       <c r="J346" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K346" s="1">
         <v>1.717225</v>
@@ -22894,7 +22894,7 @@
       </c>
       <c r="J347" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K347" s="1">
         <v>1.7171560000000001</v>
@@ -22960,7 +22960,7 @@
       </c>
       <c r="J348" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K348" s="1">
         <v>1.7188790000000003</v>
@@ -22989,7 +22989,7 @@
       </c>
       <c r="R348">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S348" t="str">
         <f t="shared" si="50"/>
@@ -23026,7 +23026,7 @@
       </c>
       <c r="J349" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="K349" s="1">
         <v>1.7178550000000001</v>
@@ -23047,11 +23047,11 @@
       </c>
       <c r="P349">
         <f t="shared" ca="1" si="46"/>
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="Q349" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R349">
         <f t="shared" ca="1" si="49"/>
@@ -23092,7 +23092,7 @@
       </c>
       <c r="J350" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K350" s="1">
         <v>1.7188309999999998</v>
@@ -23121,7 +23121,7 @@
       </c>
       <c r="R350">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S350" t="str">
         <f t="shared" si="50"/>
@@ -23158,7 +23158,7 @@
       </c>
       <c r="J351" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="K351" s="1">
         <v>1.7168099999999997</v>
@@ -23183,11 +23183,11 @@
       </c>
       <c r="Q351" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R351">
         <f t="shared" ca="1" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S351" t="str">
         <f t="shared" si="50"/>
@@ -23224,7 +23224,7 @@
       </c>
       <c r="J352" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K352" s="1">
         <v>1.7165590000000002</v>
@@ -23249,11 +23249,11 @@
       </c>
       <c r="Q352" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R352">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S352" t="str">
         <f t="shared" si="50"/>
@@ -23290,7 +23290,7 @@
       </c>
       <c r="J353" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="K353" s="1">
         <v>1.7183760000000001</v>
@@ -23311,11 +23311,11 @@
       </c>
       <c r="P353">
         <f t="shared" ca="1" si="46"/>
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q353" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R353">
         <f t="shared" ca="1" si="49"/>
@@ -23356,7 +23356,7 @@
       </c>
       <c r="J354" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="K354" s="1">
         <v>1.7188140000000001</v>
@@ -23381,7 +23381,7 @@
       </c>
       <c r="Q354" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R354">
         <f t="shared" ca="1" si="49"/>
@@ -23422,7 +23422,7 @@
       </c>
       <c r="J355" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="K355" s="1">
         <v>1.7157830000000001</v>
@@ -23447,11 +23447,11 @@
       </c>
       <c r="Q355" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R355">
         <f t="shared" ca="1" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S355" t="str">
         <f t="shared" si="50"/>
@@ -23488,7 +23488,7 @@
       </c>
       <c r="J356" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K356" s="1">
         <v>1.7159740000000001</v>
@@ -23517,7 +23517,7 @@
       </c>
       <c r="R356">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S356" t="str">
         <f t="shared" si="50"/>
@@ -23554,7 +23554,7 @@
       </c>
       <c r="J357" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K357" s="1">
         <v>1.7185480000000002</v>
@@ -23579,11 +23579,11 @@
       </c>
       <c r="Q357" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R357">
         <f t="shared" ca="1" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S357" t="str">
         <f t="shared" si="50"/>
@@ -23620,7 +23620,7 @@
       </c>
       <c r="J358" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K358" s="1">
         <v>1.7149789999999996</v>
@@ -23649,7 +23649,7 @@
       </c>
       <c r="R358">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S358" t="str">
         <f t="shared" si="50"/>
@@ -23686,7 +23686,7 @@
       </c>
       <c r="J359" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="K359" s="1">
         <v>1.7179339999999996</v>
@@ -23715,7 +23715,7 @@
       </c>
       <c r="R359">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S359" t="str">
         <f t="shared" si="50"/>
@@ -23752,7 +23752,7 @@
       </c>
       <c r="J360" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K360" s="1">
         <v>1.7154299999999996</v>
@@ -23781,7 +23781,7 @@
       </c>
       <c r="R360">
         <f t="shared" ca="1" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S360" t="str">
         <f t="shared" si="50"/>
@@ -23818,7 +23818,7 @@
       </c>
       <c r="J361" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K361" s="1">
         <v>1.7150160000000003</v>
@@ -23839,15 +23839,15 @@
       </c>
       <c r="P361">
         <f t="shared" ca="1" si="46"/>
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q361" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R361">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S361" t="str">
         <f t="shared" si="50"/>
@@ -23884,7 +23884,7 @@
       </c>
       <c r="J362" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="K362" s="1">
         <v>1.7215259999999999</v>
@@ -23950,7 +23950,7 @@
       </c>
       <c r="J363" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="K363" s="1">
         <v>1.7192429999999996</v>
@@ -23975,7 +23975,7 @@
       </c>
       <c r="Q363" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R363">
         <f t="shared" ca="1" si="49"/>
@@ -24016,7 +24016,7 @@
       </c>
       <c r="J364" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="K364" s="1">
         <v>1.7168359999999998</v>
@@ -24041,7 +24041,7 @@
       </c>
       <c r="Q364" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R364">
         <f t="shared" ca="1" si="49"/>
@@ -24085,7 +24085,7 @@
       </c>
       <c r="J365" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K365" s="1">
         <v>1.7148380000000003</v>
@@ -24110,7 +24110,7 @@
       </c>
       <c r="Q365" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R365">
         <f t="shared" ca="1" si="49"/>
@@ -24151,7 +24151,7 @@
       </c>
       <c r="J366" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K366" s="1">
         <v>1.7056779999999998</v>
@@ -24172,7 +24172,7 @@
       </c>
       <c r="P366">
         <f t="shared" ca="1" si="46"/>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="Q366" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -24217,7 +24217,7 @@
       </c>
       <c r="J367" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K367" s="1">
         <v>1.644501</v>
@@ -24242,7 +24242,7 @@
       </c>
       <c r="Q367" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R367">
         <f t="shared" ca="1" si="49"/>
@@ -24283,7 +24283,7 @@
       </c>
       <c r="J368" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K368" s="1">
         <v>1.5783769999999997</v>
@@ -24308,11 +24308,11 @@
       </c>
       <c r="Q368" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R368">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S368" t="str">
         <f t="shared" si="50"/>
@@ -24349,7 +24349,7 @@
       </c>
       <c r="J369" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="K369" s="1">
         <v>1.5134990000000004</v>
@@ -24378,7 +24378,7 @@
       </c>
       <c r="R369">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S369" t="str">
         <f t="shared" si="50"/>
@@ -24415,7 +24415,7 @@
       </c>
       <c r="J370" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K370" s="1">
         <v>1.465986</v>
@@ -24440,11 +24440,11 @@
       </c>
       <c r="Q370" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R370">
         <f t="shared" ca="1" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S370" t="str">
         <f t="shared" si="50"/>
@@ -24481,7 +24481,7 @@
       </c>
       <c r="J371" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K371" s="1">
         <v>1.4570069999999999</v>
@@ -24506,7 +24506,7 @@
       </c>
       <c r="Q371" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R371">
         <f t="shared" ca="1" si="49"/>
@@ -24547,7 +24547,7 @@
       </c>
       <c r="J372" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="K372" s="1">
         <v>1.4585030000000003</v>
@@ -24568,7 +24568,7 @@
       </c>
       <c r="P372">
         <f t="shared" ca="1" si="46"/>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="Q372" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -24576,7 +24576,7 @@
       </c>
       <c r="R372">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S372" t="str">
         <f t="shared" si="50"/>
@@ -24613,7 +24613,7 @@
       </c>
       <c r="J373" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K373" s="1">
         <v>1.4616879999999997</v>
@@ -24642,7 +24642,7 @@
       </c>
       <c r="R373">
         <f t="shared" ca="1" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S373" t="str">
         <f t="shared" si="50"/>
@@ -24679,7 +24679,7 @@
       </c>
       <c r="J374" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K374" s="1">
         <v>1.4606870000000001</v>
@@ -24708,7 +24708,7 @@
       </c>
       <c r="R374">
         <f t="shared" ca="1" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S374" t="str">
         <f t="shared" si="50"/>
@@ -24745,7 +24745,7 @@
       </c>
       <c r="J375" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K375" s="1">
         <v>1.4612259999999999</v>
@@ -24770,11 +24770,11 @@
       </c>
       <c r="Q375" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R375">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S375" t="str">
         <f t="shared" si="50"/>
@@ -24811,7 +24811,7 @@
       </c>
       <c r="J376" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K376" s="1">
         <v>1.4573510000000001</v>
@@ -24832,15 +24832,15 @@
       </c>
       <c r="P376">
         <f t="shared" ca="1" si="53"/>
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="Q376" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R376">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S376" t="str">
         <f t="shared" si="50"/>
@@ -24877,7 +24877,7 @@
       </c>
       <c r="J377" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="K377" s="1">
         <v>1.4608020000000002</v>
@@ -24906,7 +24906,7 @@
       </c>
       <c r="R377">
         <f t="shared" ca="1" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S377" t="str">
         <f t="shared" si="50"/>
@@ -24943,7 +24943,7 @@
       </c>
       <c r="J378" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="K378" s="1">
         <v>1.4605170000000003</v>
@@ -24972,7 +24972,7 @@
       </c>
       <c r="R378">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S378" t="str">
         <f t="shared" si="50"/>
@@ -25009,7 +25009,7 @@
       </c>
       <c r="J379" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="K379" s="1">
         <v>1.4589100000000004</v>
@@ -25034,11 +25034,11 @@
       </c>
       <c r="Q379" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R379">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S379" t="str">
         <f t="shared" si="50"/>
@@ -25075,7 +25075,7 @@
       </c>
       <c r="J380" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K380" s="1">
         <v>1.4588169999999998</v>
@@ -25104,7 +25104,7 @@
       </c>
       <c r="R380">
         <f t="shared" ca="1" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S380" t="str">
         <f t="shared" si="50"/>
@@ -25141,7 +25141,7 @@
       </c>
       <c r="J381" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="K381" s="1">
         <v>1.4585400000000002</v>
@@ -25170,7 +25170,7 @@
       </c>
       <c r="R381">
         <f t="shared" ca="1" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S381" t="str">
         <f t="shared" si="50"/>
@@ -25207,7 +25207,7 @@
       </c>
       <c r="J382" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="K382" s="1">
         <v>1.4600879999999998</v>
@@ -25232,11 +25232,11 @@
       </c>
       <c r="Q382" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R382">
         <f t="shared" ca="1" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S382" t="str">
         <f t="shared" si="50"/>
@@ -25273,7 +25273,7 @@
       </c>
       <c r="J383" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K383" s="1">
         <v>1.4589749999999997</v>
@@ -25298,11 +25298,11 @@
       </c>
       <c r="Q383" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R383">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S383" t="str">
         <f t="shared" si="50"/>
@@ -25360,11 +25360,11 @@
       </c>
       <c r="P384">
         <f t="shared" ca="1" si="53"/>
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="Q384" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R384">
         <f t="shared" ca="1" si="49"/>
@@ -25405,7 +25405,7 @@
       </c>
       <c r="J385" s="1">
         <f t="shared" ca="1" si="47"/>
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K385" s="1">
         <v>1.4593249999999998</v>
@@ -25430,11 +25430,11 @@
       </c>
       <c r="Q385" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R385">
         <f t="shared" ca="1" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S385" t="str">
         <f t="shared" si="50"/>
@@ -25471,7 +25471,7 @@
       </c>
       <c r="J386" s="1">
         <f t="shared" ref="J386:J449" ca="1" si="54">RANDBETWEEN(10,50)</f>
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K386" s="1">
         <v>1.4619280000000003</v>
@@ -25500,7 +25500,7 @@
       </c>
       <c r="R386">
         <f t="shared" ref="R386:R449" ca="1" si="56">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S386" t="str">
         <f t="shared" ref="S386:S449" si="57">CHOOSE(MOD(D386,3)+1,"D","E","F")</f>
@@ -25537,7 +25537,7 @@
       </c>
       <c r="J387" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K387" s="1">
         <v>1.4586750000000004</v>
@@ -25603,7 +25603,7 @@
       </c>
       <c r="J388" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K388" s="1">
         <v>1.4583969999999997</v>
@@ -25672,7 +25672,7 @@
       </c>
       <c r="J389" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K389" s="1">
         <v>1.4569479999999997</v>
@@ -25697,11 +25697,11 @@
       </c>
       <c r="Q389" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R389">
         <f t="shared" ca="1" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S389" t="str">
         <f t="shared" si="57"/>
@@ -25738,7 +25738,7 @@
       </c>
       <c r="J390" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="K390" s="1">
         <v>1.4592499999999999</v>
@@ -25804,7 +25804,7 @@
       </c>
       <c r="J391" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="K391" s="1">
         <v>1.4590490000000003</v>
@@ -25829,7 +25829,7 @@
       </c>
       <c r="Q391" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R391">
         <f t="shared" ca="1" si="56"/>
@@ -25936,7 +25936,7 @@
       </c>
       <c r="J393" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K393" s="1">
         <v>1.4588910000000004</v>
@@ -26002,7 +26002,7 @@
       </c>
       <c r="J394" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K394" s="1">
         <v>1.462059</v>
@@ -26031,7 +26031,7 @@
       </c>
       <c r="R394">
         <f t="shared" ca="1" si="56"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S394" t="str">
         <f t="shared" si="57"/>
@@ -26068,7 +26068,7 @@
       </c>
       <c r="J395" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K395" s="1">
         <v>1.4625719999999998</v>
@@ -26093,11 +26093,11 @@
       </c>
       <c r="Q395" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R395">
         <f t="shared" ca="1" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S395" t="str">
         <f t="shared" si="57"/>
@@ -26134,7 +26134,7 @@
       </c>
       <c r="J396" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K396" s="1">
         <v>1.4701550000000001</v>
@@ -26155,7 +26155,7 @@
       </c>
       <c r="P396">
         <f t="shared" ca="1" si="53"/>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Q396" t="str">
         <f t="shared" ca="1" si="55"/>
@@ -26200,7 +26200,7 @@
       </c>
       <c r="J397" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="K397" s="1">
         <v>1.46068</v>
@@ -26225,11 +26225,11 @@
       </c>
       <c r="Q397" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R397">
         <f t="shared" ca="1" si="56"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S397" t="str">
         <f t="shared" si="57"/>
@@ -26266,7 +26266,7 @@
       </c>
       <c r="J398" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K398" s="1">
         <v>1.4582730000000002</v>
@@ -26332,7 +26332,7 @@
       </c>
       <c r="J399" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="K399" s="1">
         <v>1.4622830000000002</v>
@@ -26357,11 +26357,11 @@
       </c>
       <c r="Q399" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R399">
         <f t="shared" ca="1" si="56"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S399" t="str">
         <f t="shared" si="57"/>
@@ -26427,7 +26427,7 @@
       </c>
       <c r="R400">
         <f t="shared" ca="1" si="56"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S400" t="str">
         <f t="shared" si="57"/>
@@ -26464,7 +26464,7 @@
       </c>
       <c r="J401" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="K401" s="1">
         <v>1.4608350000000003</v>
@@ -26489,7 +26489,7 @@
       </c>
       <c r="Q401" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R401">
         <f t="shared" ca="1" si="56"/>
@@ -26530,7 +26530,7 @@
       </c>
       <c r="J402" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K402" s="1">
         <v>1.4574730000000002</v>
@@ -26596,7 +26596,7 @@
       </c>
       <c r="J403" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K403" s="1">
         <v>1.4576830000000003</v>
@@ -26662,7 +26662,7 @@
       </c>
       <c r="J404" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K404" s="1">
         <v>1.4585600000000003</v>
@@ -26691,7 +26691,7 @@
       </c>
       <c r="R404">
         <f t="shared" ca="1" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S404" t="str">
         <f t="shared" si="57"/>
@@ -26728,7 +26728,7 @@
       </c>
       <c r="J405" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K405" s="1">
         <v>1.4603289999999998</v>
@@ -26753,7 +26753,7 @@
       </c>
       <c r="Q405" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R405">
         <f t="shared" ca="1" si="56"/>
@@ -26794,7 +26794,7 @@
       </c>
       <c r="J406" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K406" s="1">
         <v>1.4594480000000001</v>
@@ -26819,7 +26819,7 @@
       </c>
       <c r="Q406" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R406">
         <f t="shared" ca="1" si="56"/>
@@ -26860,7 +26860,7 @@
       </c>
       <c r="J407" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K407" s="1">
         <v>1.4604499999999998</v>
@@ -26926,7 +26926,7 @@
       </c>
       <c r="J408" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="K408" s="1">
         <v>1.4620819999999997</v>
@@ -26947,11 +26947,11 @@
       </c>
       <c r="P408">
         <f t="shared" ca="1" si="53"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="Q408" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R408">
         <f t="shared" ca="1" si="56"/>
@@ -26992,7 +26992,7 @@
       </c>
       <c r="J409" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K409" s="1">
         <v>1.4600840000000002</v>
@@ -27021,7 +27021,7 @@
       </c>
       <c r="R409">
         <f t="shared" ca="1" si="56"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S409" t="str">
         <f t="shared" si="57"/>
@@ -27058,7 +27058,7 @@
       </c>
       <c r="J410" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="K410" s="1">
         <v>1.459479</v>
@@ -27083,7 +27083,7 @@
       </c>
       <c r="Q410" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R410">
         <f t="shared" ca="1" si="56"/>
@@ -27124,7 +27124,7 @@
       </c>
       <c r="J411" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="K411" s="1">
         <v>1.4591409999999998</v>
@@ -27190,7 +27190,7 @@
       </c>
       <c r="J412" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K412" s="1">
         <v>1.4596989999999996</v>
@@ -27215,7 +27215,7 @@
       </c>
       <c r="Q412" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R412">
         <f t="shared" ca="1" si="56"/>
@@ -27259,7 +27259,7 @@
       </c>
       <c r="J413" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="K413" s="1">
         <v>1.4580010000000003</v>
@@ -27284,11 +27284,11 @@
       </c>
       <c r="Q413" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R413">
         <f t="shared" ca="1" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S413" t="str">
         <f t="shared" si="57"/>
@@ -27325,7 +27325,7 @@
       </c>
       <c r="J414" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K414" s="1">
         <v>1.4606389999999996</v>
@@ -27346,11 +27346,11 @@
       </c>
       <c r="P414">
         <f t="shared" ca="1" si="53"/>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="Q414" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R414">
         <f t="shared" ca="1" si="56"/>
@@ -27391,7 +27391,7 @@
       </c>
       <c r="J415" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="K415" s="1">
         <v>1.4579760000000004</v>
@@ -27416,11 +27416,11 @@
       </c>
       <c r="Q415" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R415">
         <f t="shared" ca="1" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S415" t="str">
         <f t="shared" si="57"/>
@@ -27457,7 +27457,7 @@
       </c>
       <c r="J416" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K416" s="1">
         <v>1.4612150000000002</v>
@@ -27486,7 +27486,7 @@
       </c>
       <c r="R416">
         <f t="shared" ca="1" si="56"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S416" t="str">
         <f t="shared" si="57"/>
@@ -27523,7 +27523,7 @@
       </c>
       <c r="J417" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K417" s="1">
         <v>1.4620379999999997</v>
@@ -27548,7 +27548,7 @@
       </c>
       <c r="Q417" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R417">
         <f t="shared" ca="1" si="56"/>
@@ -27589,7 +27589,7 @@
       </c>
       <c r="J418" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K418" s="1">
         <v>1.4606079999999997</v>
@@ -27614,11 +27614,11 @@
       </c>
       <c r="Q418" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R418">
         <f t="shared" ca="1" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S418" t="str">
         <f t="shared" si="57"/>
@@ -27655,7 +27655,7 @@
       </c>
       <c r="J419" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K419" s="1">
         <v>1.4634510000000001</v>
@@ -27721,7 +27721,7 @@
       </c>
       <c r="J420" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K420" s="1">
         <v>1.4594370000000003</v>
@@ -27742,15 +27742,15 @@
       </c>
       <c r="P420">
         <f t="shared" ca="1" si="53"/>
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="Q420" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R420">
         <f t="shared" ca="1" si="56"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S420" t="str">
         <f t="shared" si="57"/>
@@ -27787,7 +27787,7 @@
       </c>
       <c r="J421" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K421" s="1">
         <v>1.4614560000000001</v>
@@ -27812,7 +27812,7 @@
       </c>
       <c r="Q421" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R421">
         <f t="shared" ca="1" si="56"/>
@@ -27853,7 +27853,7 @@
       </c>
       <c r="J422" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="K422" s="1">
         <v>1.4593550000000004</v>
@@ -27882,7 +27882,7 @@
       </c>
       <c r="R422">
         <f t="shared" ca="1" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S422" t="str">
         <f t="shared" si="57"/>
@@ -27944,11 +27944,11 @@
       </c>
       <c r="Q423" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R423">
         <f t="shared" ca="1" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S423" t="str">
         <f t="shared" si="57"/>
@@ -27985,7 +27985,7 @@
       </c>
       <c r="J424" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K424" s="1">
         <v>1.4598209999999998</v>
@@ -28006,15 +28006,15 @@
       </c>
       <c r="P424">
         <f t="shared" ca="1" si="53"/>
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q424" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R424">
         <f t="shared" ca="1" si="56"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S424" t="str">
         <f t="shared" si="57"/>
@@ -28051,7 +28051,7 @@
       </c>
       <c r="J425" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K425" s="1">
         <v>1.4597199999999999</v>
@@ -28117,7 +28117,7 @@
       </c>
       <c r="J426" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="K426" s="1">
         <v>1.4627400000000002</v>
@@ -28183,7 +28183,7 @@
       </c>
       <c r="J427" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="K427" s="1">
         <v>1.4584590000000004</v>
@@ -28208,11 +28208,11 @@
       </c>
       <c r="Q427" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R427">
         <f t="shared" ca="1" si="56"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S427" t="str">
         <f t="shared" si="57"/>
@@ -28278,7 +28278,7 @@
       </c>
       <c r="R428">
         <f t="shared" ca="1" si="56"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S428" t="str">
         <f t="shared" si="57"/>
@@ -28315,7 +28315,7 @@
       </c>
       <c r="J429" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="K429" s="1">
         <v>1.4584780000000004</v>
@@ -28340,7 +28340,7 @@
       </c>
       <c r="Q429" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R429">
         <f t="shared" ca="1" si="56"/>
@@ -28381,7 +28381,7 @@
       </c>
       <c r="J430" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K430" s="1">
         <v>1.4615879999999999</v>
@@ -28447,7 +28447,7 @@
       </c>
       <c r="J431" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="K431" s="1">
         <v>1.4645619999999999</v>
@@ -28472,11 +28472,11 @@
       </c>
       <c r="Q431" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R431">
         <f t="shared" ca="1" si="56"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S431" t="str">
         <f t="shared" si="57"/>
@@ -28513,7 +28513,7 @@
       </c>
       <c r="J432" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K432" s="1">
         <v>1.459797</v>
@@ -28534,15 +28534,15 @@
       </c>
       <c r="P432">
         <f t="shared" ca="1" si="53"/>
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q432" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R432">
         <f t="shared" ca="1" si="56"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S432" t="str">
         <f t="shared" si="57"/>
@@ -28579,7 +28579,7 @@
       </c>
       <c r="J433" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K433" s="1">
         <v>1.457433</v>
@@ -28608,7 +28608,7 @@
       </c>
       <c r="R433">
         <f t="shared" ca="1" si="56"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S433" t="str">
         <f t="shared" si="57"/>
@@ -28645,7 +28645,7 @@
       </c>
       <c r="J434" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="K434" s="1">
         <v>1.4604600000000003</v>
@@ -28670,7 +28670,7 @@
       </c>
       <c r="Q434" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R434">
         <f t="shared" ca="1" si="56"/>
@@ -28711,7 +28711,7 @@
       </c>
       <c r="J435" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K435" s="1">
         <v>1.4571379999999996</v>
@@ -28736,7 +28736,7 @@
       </c>
       <c r="Q435" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R435">
         <f t="shared" ca="1" si="56"/>
@@ -28777,7 +28777,7 @@
       </c>
       <c r="J436" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="K436" s="1">
         <v>1.4591880000000002</v>
@@ -28802,7 +28802,7 @@
       </c>
       <c r="Q436" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R436">
         <f t="shared" ca="1" si="56"/>
@@ -28846,7 +28846,7 @@
       </c>
       <c r="J437" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="K437" s="1">
         <v>1.4607799999999997</v>
@@ -28871,11 +28871,11 @@
       </c>
       <c r="Q437" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R437">
         <f t="shared" ca="1" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S437" t="str">
         <f t="shared" si="57"/>
@@ -28912,7 +28912,7 @@
       </c>
       <c r="J438" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K438" s="1">
         <v>1.45817</v>
@@ -28933,15 +28933,15 @@
       </c>
       <c r="P438">
         <f t="shared" ca="1" si="53"/>
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="Q438" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R438">
         <f t="shared" ca="1" si="56"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S438" t="str">
         <f t="shared" si="57"/>
@@ -28978,7 +28978,7 @@
       </c>
       <c r="J439" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="K439" s="1">
         <v>1.4625839999999997</v>
@@ -29003,11 +29003,11 @@
       </c>
       <c r="Q439" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R439">
         <f t="shared" ca="1" si="56"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S439" t="str">
         <f t="shared" si="57"/>
@@ -29044,7 +29044,7 @@
       </c>
       <c r="J440" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="K440" s="1">
         <v>1.4599270000000004</v>
@@ -29069,11 +29069,11 @@
       </c>
       <c r="Q440" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R440">
         <f t="shared" ca="1" si="56"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S440" t="str">
         <f t="shared" si="57"/>
@@ -29110,7 +29110,7 @@
       </c>
       <c r="J441" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="K441" s="1">
         <v>1.4606490000000001</v>
@@ -29135,7 +29135,7 @@
       </c>
       <c r="Q441" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R441">
         <f t="shared" ca="1" si="56"/>
@@ -29176,7 +29176,7 @@
       </c>
       <c r="J442" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="K442" s="1">
         <v>1.460178</v>
@@ -29205,7 +29205,7 @@
       </c>
       <c r="R442">
         <f t="shared" ca="1" si="56"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S442" t="str">
         <f t="shared" si="57"/>
@@ -29242,7 +29242,7 @@
       </c>
       <c r="J443" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K443" s="1">
         <v>1.4598209999999998</v>
@@ -29267,7 +29267,7 @@
       </c>
       <c r="Q443" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R443">
         <f t="shared" ca="1" si="56"/>
@@ -29308,7 +29308,7 @@
       </c>
       <c r="J444" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K444" s="1">
         <v>1.4602079999999997</v>
@@ -29329,7 +29329,7 @@
       </c>
       <c r="P444">
         <f t="shared" ca="1" si="60"/>
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="Q444" t="str">
         <f t="shared" ca="1" si="55"/>
@@ -29337,7 +29337,7 @@
       </c>
       <c r="R444">
         <f t="shared" ca="1" si="56"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S444" t="str">
         <f t="shared" si="57"/>
@@ -29374,7 +29374,7 @@
       </c>
       <c r="J445" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K445" s="1">
         <v>1.459212</v>
@@ -29403,7 +29403,7 @@
       </c>
       <c r="R445">
         <f t="shared" ca="1" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S445" t="str">
         <f t="shared" si="57"/>
@@ -29440,7 +29440,7 @@
       </c>
       <c r="J446" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="K446" s="1">
         <v>1.4610399999999997</v>
@@ -29465,11 +29465,11 @@
       </c>
       <c r="Q446" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R446">
         <f t="shared" ca="1" si="56"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S446" t="str">
         <f t="shared" si="57"/>
@@ -29506,7 +29506,7 @@
       </c>
       <c r="J447" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K447" s="1">
         <v>1.458501</v>
@@ -29531,11 +29531,11 @@
       </c>
       <c r="Q447" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R447">
         <f t="shared" ca="1" si="56"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S447" t="str">
         <f t="shared" si="57"/>
@@ -29572,7 +29572,7 @@
       </c>
       <c r="J448" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K448" s="1">
         <v>1.4706869999999999</v>
@@ -29593,7 +29593,7 @@
       </c>
       <c r="P448">
         <f t="shared" ca="1" si="60"/>
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q448" t="str">
         <f t="shared" ca="1" si="55"/>
@@ -29638,7 +29638,7 @@
       </c>
       <c r="J449" s="1">
         <f t="shared" ca="1" si="54"/>
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="K449" s="1">
         <v>1.4583570000000003</v>
@@ -29663,7 +29663,7 @@
       </c>
       <c r="Q449" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R449">
         <f t="shared" ca="1" si="56"/>
@@ -29704,7 +29704,7 @@
       </c>
       <c r="J450" s="1">
         <f t="shared" ref="J450:J508" ca="1" si="61">RANDBETWEEN(10,50)</f>
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K450" s="1">
         <v>1.4608980000000003</v>
@@ -29733,7 +29733,7 @@
       </c>
       <c r="R450">
         <f t="shared" ref="R450:R508" ca="1" si="63">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S450" t="str">
         <f t="shared" ref="S450:S508" si="64">CHOOSE(MOD(D450,3)+1,"D","E","F")</f>
@@ -29770,7 +29770,7 @@
       </c>
       <c r="J451" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="K451" s="1">
         <v>1.4582790000000001</v>
@@ -29795,7 +29795,7 @@
       </c>
       <c r="Q451" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R451">
         <f t="shared" ca="1" si="63"/>
@@ -29836,7 +29836,7 @@
       </c>
       <c r="J452" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="K452" s="1">
         <v>1.4596099999999996</v>
@@ -29861,11 +29861,11 @@
       </c>
       <c r="Q452" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R452">
         <f t="shared" ca="1" si="63"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S452" t="str">
         <f t="shared" si="64"/>
@@ -29902,7 +29902,7 @@
       </c>
       <c r="J453" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="K453" s="1">
         <v>1.4597709999999999</v>
@@ -29968,7 +29968,7 @@
       </c>
       <c r="J454" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K454" s="1">
         <v>1.4599950000000002</v>
@@ -29993,7 +29993,7 @@
       </c>
       <c r="Q454" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R454">
         <f t="shared" ca="1" si="63"/>
@@ -30034,7 +30034,7 @@
       </c>
       <c r="J455" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="K455" s="1">
         <v>1.4592770000000002</v>
@@ -30100,7 +30100,7 @@
       </c>
       <c r="J456" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="K456" s="1">
         <v>1.4629789999999998</v>
@@ -30121,15 +30121,15 @@
       </c>
       <c r="P456">
         <f t="shared" ca="1" si="60"/>
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="Q456" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R456">
         <f t="shared" ca="1" si="63"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S456" t="str">
         <f t="shared" si="64"/>
@@ -30166,7 +30166,7 @@
       </c>
       <c r="J457" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K457" s="1">
         <v>1.4610190000000003</v>
@@ -30191,7 +30191,7 @@
       </c>
       <c r="Q457" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R457">
         <f t="shared" ca="1" si="63"/>
@@ -30232,7 +30232,7 @@
       </c>
       <c r="J458" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="K458" s="1">
         <v>1.4597129999999998</v>
@@ -30257,7 +30257,7 @@
       </c>
       <c r="Q458" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R458">
         <f t="shared" ca="1" si="63"/>
@@ -30298,7 +30298,7 @@
       </c>
       <c r="J459" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="K459" s="1">
         <v>1.4587919999999999</v>
@@ -30364,7 +30364,7 @@
       </c>
       <c r="J460" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K460" s="1">
         <v>1.4583940000000002</v>
@@ -30389,11 +30389,11 @@
       </c>
       <c r="Q460" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R460">
         <f t="shared" ca="1" si="63"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S460" t="str">
         <f t="shared" si="64"/>
@@ -30433,7 +30433,7 @@
       </c>
       <c r="J461" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="K461" s="1">
         <v>1.9995779999999996</v>
@@ -30458,7 +30458,7 @@
       </c>
       <c r="Q461" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R461">
         <f t="shared" ca="1" si="63"/>
@@ -30499,7 +30499,7 @@
       </c>
       <c r="J462" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K462" s="1">
         <v>1.9987320000000004</v>
@@ -30528,7 +30528,7 @@
       </c>
       <c r="R462">
         <f t="shared" ca="1" si="63"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S462" t="str">
         <f t="shared" si="64"/>
@@ -30565,7 +30565,7 @@
       </c>
       <c r="J463" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="K463" s="1">
         <v>1.9990240000000004</v>
@@ -30590,11 +30590,11 @@
       </c>
       <c r="Q463" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R463">
         <f t="shared" ca="1" si="63"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S463" t="str">
         <f t="shared" si="64"/>
@@ -30631,7 +30631,7 @@
       </c>
       <c r="J464" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="K464" s="1">
         <v>1.9997369999999997</v>
@@ -30697,7 +30697,7 @@
       </c>
       <c r="J465" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K465" s="1">
         <v>1.9997400000000001</v>
@@ -30763,7 +30763,7 @@
       </c>
       <c r="J466" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K466" s="1">
         <v>2.0004580000000001</v>
@@ -30788,7 +30788,7 @@
       </c>
       <c r="Q466" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R466">
         <f t="shared" ca="1" si="63"/>
@@ -30829,7 +30829,7 @@
       </c>
       <c r="J467" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K467" s="1">
         <v>1.9986309999999996</v>
@@ -30858,7 +30858,7 @@
       </c>
       <c r="R467">
         <f t="shared" ca="1" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S467" t="str">
         <f t="shared" si="64"/>
@@ -30895,7 +30895,7 @@
       </c>
       <c r="J468" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K468" s="1">
         <v>1.9989169999999996</v>
@@ -30920,11 +30920,11 @@
       </c>
       <c r="Q468" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R468">
         <f t="shared" ca="1" si="63"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S468" t="str">
         <f t="shared" si="64"/>
@@ -30961,7 +30961,7 @@
       </c>
       <c r="J469" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="K469" s="1">
         <v>2.0003099999999998</v>
@@ -30986,7 +30986,7 @@
       </c>
       <c r="Q469" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R469">
         <f t="shared" ca="1" si="63"/>
@@ -31027,7 +31027,7 @@
       </c>
       <c r="J470" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K470" s="1">
         <v>2.0003330000000004</v>
@@ -31093,7 +31093,7 @@
       </c>
       <c r="J471" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="K471" s="1">
         <v>1.9995070000000004</v>
@@ -31118,7 +31118,7 @@
       </c>
       <c r="Q471" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R471">
         <f t="shared" ca="1" si="63"/>
@@ -31159,7 +31159,7 @@
       </c>
       <c r="J472" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K472" s="1">
         <v>1.9982550000000003</v>
@@ -31180,7 +31180,7 @@
       </c>
       <c r="P472">
         <f t="shared" ca="1" si="60"/>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="Q472" t="str">
         <f t="shared" ca="1" si="62"/>
@@ -31188,7 +31188,7 @@
       </c>
       <c r="R472">
         <f t="shared" ca="1" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S472" t="str">
         <f t="shared" si="64"/>
@@ -31225,7 +31225,7 @@
       </c>
       <c r="J473" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K473" s="1">
         <v>1.9991469999999998</v>
@@ -31250,11 +31250,11 @@
       </c>
       <c r="Q473" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R473">
         <f t="shared" ca="1" si="63"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S473" t="str">
         <f t="shared" si="64"/>
@@ -31291,7 +31291,7 @@
       </c>
       <c r="J474" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="K474" s="1">
         <v>1.9993819999999998</v>
@@ -31320,7 +31320,7 @@
       </c>
       <c r="R474">
         <f t="shared" ca="1" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S474" t="str">
         <f t="shared" si="64"/>
@@ -31357,7 +31357,7 @@
       </c>
       <c r="J475" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="K475" s="1">
         <v>2.0014560000000001</v>
@@ -31423,7 +31423,7 @@
       </c>
       <c r="J476" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K476" s="1">
         <v>1.9969390000000002</v>
@@ -31448,11 +31448,11 @@
       </c>
       <c r="Q476" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R476">
         <f t="shared" ca="1" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S476" t="str">
         <f t="shared" si="64"/>
@@ -31489,7 +31489,7 @@
       </c>
       <c r="J477" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="K477" s="1">
         <v>1.9996929999999997</v>
@@ -31514,7 +31514,7 @@
       </c>
       <c r="Q477" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R477">
         <f t="shared" ca="1" si="63"/>
@@ -31555,7 +31555,7 @@
       </c>
       <c r="J478" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K478" s="1">
         <v>1.9989189999999999</v>
@@ -31580,11 +31580,11 @@
       </c>
       <c r="Q478" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R478">
         <f t="shared" ca="1" si="63"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S478" t="str">
         <f t="shared" si="64"/>
@@ -31621,7 +31621,7 @@
       </c>
       <c r="J479" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="K479" s="1">
         <v>1.9985429999999997</v>
@@ -31650,7 +31650,7 @@
       </c>
       <c r="R479">
         <f t="shared" ca="1" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S479" t="str">
         <f t="shared" si="64"/>
@@ -31687,7 +31687,7 @@
       </c>
       <c r="J480" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K480" s="1">
         <v>2.0003219999999997</v>
@@ -31708,7 +31708,7 @@
       </c>
       <c r="P480">
         <f t="shared" ca="1" si="60"/>
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="Q480" t="str">
         <f t="shared" ca="1" si="62"/>
@@ -31753,7 +31753,7 @@
       </c>
       <c r="J481" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="K481" s="1">
         <v>1.9988840000000003</v>
@@ -31782,7 +31782,7 @@
       </c>
       <c r="R481">
         <f t="shared" ca="1" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S481" t="str">
         <f t="shared" si="64"/>
@@ -31819,7 +31819,7 @@
       </c>
       <c r="J482" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K482" s="1">
         <v>2.00054</v>
@@ -31844,7 +31844,7 @@
       </c>
       <c r="Q482" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R482">
         <f t="shared" ca="1" si="63"/>
@@ -31885,7 +31885,7 @@
       </c>
       <c r="J483" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K483" s="1">
         <v>1.9993480000000003</v>
@@ -31914,7 +31914,7 @@
       </c>
       <c r="R483">
         <f t="shared" ca="1" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S483" t="str">
         <f t="shared" si="64"/>
@@ -31951,7 +31951,7 @@
       </c>
       <c r="J484" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K484" s="1">
         <v>1.9992739999999998</v>
@@ -31980,7 +31980,7 @@
       </c>
       <c r="R484">
         <f t="shared" ca="1" si="63"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S484" t="str">
         <f t="shared" si="64"/>
@@ -32020,7 +32020,7 @@
       </c>
       <c r="J485" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K485" s="1">
         <v>1.9999479999999998</v>
@@ -32049,7 +32049,7 @@
       </c>
       <c r="R485">
         <f t="shared" ca="1" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S485" t="str">
         <f t="shared" si="64"/>
@@ -32086,7 +32086,7 @@
       </c>
       <c r="J486" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K486" s="1">
         <v>1.999339</v>
@@ -32141,7 +32141,7 @@
       </c>
       <c r="J487" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K487" s="1">
         <v>1.9989150000000002</v>
@@ -32155,7 +32155,7 @@
       <c r="N487"/>
       <c r="Q487" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R487">
         <f t="shared" ca="1" si="63"/>
@@ -32196,7 +32196,7 @@
       </c>
       <c r="J488" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K488" s="1">
         <v>1.9997930000000004</v>
@@ -32210,7 +32210,7 @@
       <c r="N488"/>
       <c r="Q488" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R488">
         <f t="shared" ca="1" si="63"/>
@@ -32251,7 +32251,7 @@
       </c>
       <c r="J489" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K489" s="1">
         <v>2.0006700000000004</v>
@@ -32265,11 +32265,11 @@
       <c r="N489"/>
       <c r="Q489" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R489">
         <f t="shared" ca="1" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S489" t="str">
         <f t="shared" si="64"/>
@@ -32306,7 +32306,7 @@
       </c>
       <c r="J490" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="K490" s="1">
         <v>1.9997049999999996</v>
@@ -32361,7 +32361,7 @@
       </c>
       <c r="J491" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K491" s="1">
         <v>1.9999450000000003</v>
@@ -32379,7 +32379,7 @@
       </c>
       <c r="R491">
         <f t="shared" ca="1" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S491" t="str">
         <f t="shared" si="64"/>
@@ -32434,7 +32434,7 @@
       </c>
       <c r="R492">
         <f t="shared" ca="1" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S492" t="str">
         <f t="shared" si="64"/>
@@ -32471,7 +32471,7 @@
       </c>
       <c r="J493" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K493" s="1">
         <v>1.9982949999999997</v>
@@ -32489,7 +32489,7 @@
       </c>
       <c r="R493">
         <f t="shared" ca="1" si="63"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S493" t="str">
         <f t="shared" si="64"/>
@@ -32526,7 +32526,7 @@
       </c>
       <c r="J494" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K494" s="1">
         <v>1.9998570000000004</v>
@@ -32581,7 +32581,7 @@
       </c>
       <c r="J495" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="K495" s="1">
         <v>2.0000960000000001</v>
@@ -32636,7 +32636,7 @@
       </c>
       <c r="J496" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K496" s="1">
         <v>2.000051</v>
@@ -32654,7 +32654,7 @@
       </c>
       <c r="R496">
         <f t="shared" ca="1" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S496" t="str">
         <f t="shared" si="64"/>
@@ -32691,7 +32691,7 @@
       </c>
       <c r="J497" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="K497" s="1">
         <v>1.9998969999999998</v>
@@ -32705,11 +32705,11 @@
       <c r="N497"/>
       <c r="Q497" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R497">
         <f t="shared" ca="1" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S497" t="str">
         <f t="shared" si="64"/>
@@ -32746,7 +32746,7 @@
       </c>
       <c r="J498" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K498" s="1">
         <v>1.9996049999999999</v>
@@ -32760,7 +32760,7 @@
       <c r="N498"/>
       <c r="Q498" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R498">
         <f t="shared" ca="1" si="63"/>
@@ -32801,7 +32801,7 @@
       </c>
       <c r="J499" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K499" s="1">
         <v>1.999187</v>
@@ -32819,7 +32819,7 @@
       </c>
       <c r="R499">
         <f t="shared" ca="1" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S499" t="str">
         <f t="shared" si="64"/>
@@ -32856,7 +32856,7 @@
       </c>
       <c r="J500" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="K500" s="1">
         <v>1.998799</v>
@@ -32874,7 +32874,7 @@
       </c>
       <c r="R500">
         <f t="shared" ca="1" si="63"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S500" t="str">
         <f t="shared" si="64"/>
@@ -32886,7 +32886,7 @@
     </row>
     <row r="501" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B501" s="2">
         <v>45008.60419716435</v>
@@ -32911,7 +32911,7 @@
       </c>
       <c r="J501" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="K501" s="1">
         <v>1.9984190000000002</v>
@@ -32941,7 +32941,7 @@
     </row>
     <row r="502" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B502" s="2">
         <v>45008.614613888887</v>
@@ -32966,7 +32966,7 @@
       </c>
       <c r="J502" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="K502" s="1">
         <v>2.0009420000000002</v>
@@ -32980,7 +32980,7 @@
       <c r="N502"/>
       <c r="Q502" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>Source A</v>
+        <v>Source B</v>
       </c>
       <c r="R502">
         <f t="shared" ca="1" si="63"/>
@@ -32996,7 +32996,7 @@
     </row>
     <row r="503" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B503" s="2">
         <v>45008.625030613424</v>
@@ -33021,7 +33021,7 @@
       </c>
       <c r="J503" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="K503" s="1">
         <v>2.0002639999999996</v>
@@ -33035,11 +33035,11 @@
       <c r="N503"/>
       <c r="Q503" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R503">
         <f t="shared" ca="1" si="63"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S503" t="str">
         <f t="shared" si="64"/>
@@ -33051,7 +33051,7 @@
     </row>
     <row r="504" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B504" s="2">
         <v>45008.635447337962</v>
@@ -33076,7 +33076,7 @@
       </c>
       <c r="J504" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K504" s="1">
         <v>1.9989730000000003</v>
@@ -33090,7 +33090,7 @@
       <c r="N504"/>
       <c r="Q504" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R504">
         <f t="shared" ca="1" si="63"/>
@@ -33106,7 +33106,7 @@
     </row>
     <row r="505" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B505" s="2">
         <v>45008.645864062499</v>
@@ -33172,7 +33172,7 @@
     </row>
     <row r="506" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B506" s="2">
         <v>45008.656280787036</v>
@@ -33197,7 +33197,7 @@
       </c>
       <c r="J506" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="K506" s="1">
         <v>1.9999960000000003</v>
@@ -33222,7 +33222,7 @@
       </c>
       <c r="Q506" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>Source B</v>
+        <v>Source A</v>
       </c>
       <c r="R506">
         <f t="shared" ca="1" si="63"/>
@@ -33238,7 +33238,7 @@
     </row>
     <row r="507" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B507" s="2">
         <v>45008.666697511573</v>
@@ -33263,7 +33263,7 @@
       </c>
       <c r="J507" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K507" s="1">
         <v>1.9992989999999997</v>
@@ -33304,7 +33304,7 @@
     </row>
     <row r="508" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B508" s="2">
         <v>45008.67711423611</v>
@@ -33329,7 +33329,7 @@
       </c>
       <c r="J508" s="1">
         <f t="shared" ca="1" si="61"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K508" s="1">
         <v>2.0014479999999999</v>
@@ -33358,7 +33358,7 @@
       </c>
       <c r="R508">
         <f t="shared" ca="1" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S508" t="str">
         <f t="shared" si="64"/>
